--- a/Projects/SANOFIZA/Data/Template.xlsx
+++ b/Projects/SANOFIZA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,60 +16,62 @@
     <sheet name="Primary Shelf_Location" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$18</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$G$18</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$F$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$G$18</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$A$2:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$F$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'primary&amp;secondary_facings'!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
@@ -89,6 +91,8 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$9</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -100,486 +104,492 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="162">
   <si>
-    <t>KPI Name</t>
+    <t xml:space="preserve">KPI Name</t>
   </si>
   <si>
-    <t>KPI Group</t>
+    <t xml:space="preserve">KPI Group</t>
   </si>
   <si>
-    <t>KPI Type</t>
+    <t xml:space="preserve">KPI Type</t>
   </si>
   <si>
-    <t>Tested Group</t>
+    <t xml:space="preserve">Tested Group</t>
   </si>
   <si>
-    <t>Template Group</t>
+    <t xml:space="preserve">Template Group</t>
   </si>
   <si>
-    <t>Sheet</t>
+    <t xml:space="preserve">Sheet</t>
   </si>
   <si>
-    <t>SCORE</t>
+    <t xml:space="preserve">SCORE</t>
   </si>
   <si>
-    <t>POSM Availability Primary</t>
+    <t xml:space="preserve">POSM Availability Primary</t>
   </si>
   <si>
-    <t>Primary Shelf</t>
+    <t xml:space="preserve">Primary Shelf</t>
   </si>
   <si>
-    <t>Product Availability Per SKU</t>
+    <t xml:space="preserve">Product Availability Per SKU</t>
   </si>
   <si>
-    <t>Primary&amp;Secondary_POSM</t>
+    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
   </si>
   <si>
-    <t>numeric</t>
+    <t xml:space="preserve">numeric</t>
   </si>
   <si>
-    <t>Product Minimum Facings Primary</t>
+    <t xml:space="preserve">Product Minimum Facings Primary</t>
   </si>
   <si>
-    <t>Primary&amp;Secondary_Facings</t>
+    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
   </si>
   <si>
-    <t>Blocked Together</t>
+    <t xml:space="preserve">Blocked Together</t>
   </si>
   <si>
-    <t>Blocked Together Per Brand</t>
+    <t xml:space="preserve">Blocked Together Per Brand</t>
   </si>
   <si>
-    <t>Primary_Brand_Blocking</t>
+    <t xml:space="preserve">Primary_Brand_Blocking</t>
   </si>
   <si>
-    <t>POSM Availability Secondary</t>
+    <t xml:space="preserve">POSM Availability Secondary</t>
   </si>
   <si>
-    <t>Secondary Shelf</t>
+    <t xml:space="preserve">Secondary Shelf</t>
   </si>
   <si>
-    <t>Product Minimum Facings Secondary</t>
+    <t xml:space="preserve">Product Minimum Facings Secondary</t>
   </si>
   <si>
-    <t>MSL Compliance</t>
+    <t xml:space="preserve">MSL Compliance</t>
   </si>
   <si>
-    <t>MSL</t>
+    <t xml:space="preserve">MSL</t>
   </si>
   <si>
-    <t>Perfect Store</t>
+    <t xml:space="preserve">Perfect Store</t>
   </si>
   <si>
-    <t>Primary Shelf Compliance</t>
+    <t xml:space="preserve">Primary Shelf Compliance</t>
   </si>
   <si>
-    <t>Secondary Shelf Compliance</t>
+    <t xml:space="preserve">Secondary Shelf Compliance</t>
   </si>
   <si>
-    <t>Perfect Store Compliance</t>
+    <t xml:space="preserve">Perfect Store Compliance</t>
   </si>
   <si>
-    <t>Sum of KPIs in Group</t>
+    <t xml:space="preserve">Sum of KPIs in Group</t>
   </si>
   <si>
-    <t>store type</t>
+    <t xml:space="preserve">store type</t>
   </si>
   <si>
-    <t>Product Name</t>
+    <t xml:space="preserve">Product Name</t>
   </si>
   <si>
-    <t>Product EAN Code</t>
+    <t xml:space="preserve">Product EAN Code</t>
   </si>
   <si>
-    <t>Brand</t>
+    <t xml:space="preserve">Brand</t>
   </si>
   <si>
-    <t>Category</t>
+    <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t>Points</t>
+    <t xml:space="preserve">Points</t>
   </si>
   <si>
-    <t>Dis-Chem</t>
+    <t xml:space="preserve">Dis-Chem</t>
   </si>
   <si>
-    <t>Clicks</t>
+    <t xml:space="preserve">Mega Pharmacies</t>
   </si>
   <si>
-    <t>Mega Pharmacies</t>
+    <t xml:space="preserve">Community High Pharmacies</t>
   </si>
   <si>
-    <t>Community High Pharmacies</t>
+    <t xml:space="preserve">Community Low Pharmacies</t>
   </si>
   <si>
-    <t>Community Low Pharmacies</t>
+    <t xml:space="preserve">NBC</t>
   </si>
   <si>
-    <t>NBC</t>
+    <t xml:space="preserve">Dispensaries</t>
   </si>
   <si>
-    <t>Dispensaries</t>
+    <t xml:space="preserve">Dulcolax Adult supps. 10s </t>
   </si>
   <si>
-    <t>Dulcolax Adult supps. 10s </t>
+    <t xml:space="preserve">6006127000460</t>
   </si>
   <si>
-    <t>6006127000460</t>
+    <t xml:space="preserve">Dulcolax</t>
   </si>
   <si>
-    <t>Dulcolax</t>
+    <t xml:space="preserve">DH</t>
   </si>
   <si>
-    <t>DH</t>
+    <t xml:space="preserve">Dulcolax tabs 30s </t>
   </si>
   <si>
-    <t>Dulcolax tabs 30s </t>
+    <t xml:space="preserve">6006127000491</t>
   </si>
   <si>
-    <t>6006127000491</t>
+    <t xml:space="preserve">Dulcolax tabs 10s </t>
   </si>
   <si>
-    <t>Dulcolax tabs 10s </t>
+    <t xml:space="preserve">6006127001535</t>
   </si>
   <si>
-    <t>6006127001535</t>
+    <t xml:space="preserve">Dulcolax pead Supps 10s </t>
   </si>
   <si>
-    <t>Dulcolax pead Supps 10s </t>
+    <t xml:space="preserve">6006127000477</t>
   </si>
   <si>
-    <t>6006127000477</t>
+    <t xml:space="preserve">Dulcolax tabs 60s </t>
   </si>
   <si>
-    <t>Dulcolax tabs 60s </t>
+    <t xml:space="preserve">6006127001238</t>
   </si>
   <si>
-    <t>6006127001238</t>
+    <t xml:space="preserve">Gastrochoice IBS30 </t>
   </si>
   <si>
-    <t>Gastrochoice IBS30 </t>
+    <t xml:space="preserve">6009609471314</t>
   </si>
   <si>
-    <t>6009609471314</t>
+    <t xml:space="preserve">GastroChoice</t>
   </si>
   <si>
-    <t>GastroChoice</t>
+    <t xml:space="preserve">Essestiale extreme 100s </t>
   </si>
   <si>
-    <t>Essestiale extreme 100s </t>
+    <t xml:space="preserve">6009609472281</t>
   </si>
   <si>
-    <t>6009609472281</t>
+    <t xml:space="preserve">Essentiale</t>
   </si>
   <si>
-    <t>Essentiale</t>
+    <t xml:space="preserve">Essentiale extreme 50s </t>
   </si>
   <si>
-    <t>Essentiale extreme 50s </t>
+    <t xml:space="preserve">6009609472267</t>
   </si>
   <si>
-    <t>6009609472267</t>
+    <t xml:space="preserve">Essentiale 20s </t>
   </si>
   <si>
-    <t>Essentiale 20s </t>
+    <t xml:space="preserve">6009609472250</t>
   </si>
   <si>
-    <t>6009609472250</t>
+    <t xml:space="preserve">Bisolvon 200ml </t>
   </si>
   <si>
-    <t>Bisolvon 200ml </t>
+    <t xml:space="preserve">6006127000293</t>
   </si>
   <si>
-    <t>6006127000293</t>
+    <t xml:space="preserve">Bisolvon</t>
   </si>
   <si>
-    <t>Bisolvon</t>
+    <t xml:space="preserve">Cough &amp; Cold</t>
   </si>
   <si>
-    <t>Cough &amp; Cold</t>
+    <t xml:space="preserve">Bisolvon 100ml </t>
   </si>
   <si>
-    <t>Bisolvon 100ml </t>
+    <t xml:space="preserve">6006127000286</t>
   </si>
   <si>
-    <t>6006127000286</t>
+    <t xml:space="preserve">Pharmaton caps 30s </t>
   </si>
   <si>
-    <t>Pharmaton caps 30s </t>
+    <t xml:space="preserve">6006127000705</t>
   </si>
   <si>
-    <t>6006127000705</t>
+    <t xml:space="preserve">Pharmaton </t>
   </si>
   <si>
-    <t>Pharmaton </t>
+    <t xml:space="preserve">MVS</t>
   </si>
   <si>
-    <t>MVS</t>
+    <t xml:space="preserve">Pharmaton caps 60s</t>
   </si>
   <si>
-    <t>Pharmaton caps 60s</t>
+    <t xml:space="preserve">6006127001504</t>
   </si>
   <si>
-    <t>6006127001504</t>
+    <t xml:space="preserve">Pharmaton Proactive 30s</t>
   </si>
   <si>
-    <t>Pharmaton Proactive 30s</t>
+    <t xml:space="preserve">6006127001764</t>
   </si>
   <si>
-    <t>6006127001764</t>
+    <t xml:space="preserve">Pharmaton Kiddie syrup 100ml (KS)</t>
   </si>
   <si>
-    <t>Pharmaton Kiddie syrup 100ml (KS)</t>
+    <t xml:space="preserve">6006127000958</t>
   </si>
   <si>
-    <t>6006127000958</t>
+    <t xml:space="preserve">Viral choice 60s </t>
   </si>
   <si>
-    <t>Viral choice 60s </t>
+    <t xml:space="preserve">6009609470249</t>
   </si>
   <si>
-    <t>6009609470249</t>
+    <t xml:space="preserve">ViralChoice </t>
   </si>
   <si>
-    <t>ViralChoice </t>
+    <t xml:space="preserve">Viral choice eff 30s </t>
   </si>
   <si>
-    <t>Viral choice eff 30s </t>
+    <t xml:space="preserve">6009609470317</t>
   </si>
   <si>
-    <t>6009609470317</t>
+    <t xml:space="preserve">Viral choice eff 10s </t>
   </si>
   <si>
-    <t>Viral choice eff 10s </t>
+    <t xml:space="preserve">6009609470300</t>
   </si>
   <si>
-    <t>6009609470300</t>
+    <t xml:space="preserve">Viral choice Caps 120s</t>
   </si>
   <si>
-    <t>Viral choice Caps 120s</t>
+    <t xml:space="preserve">6009609470751</t>
   </si>
   <si>
-    <t>6009609470751</t>
+    <t xml:space="preserve">Buscopan Tabs 10s </t>
   </si>
   <si>
-    <t>Buscopan Tabs 10s </t>
+    <t xml:space="preserve">6006127000347</t>
   </si>
   <si>
-    <t>6006127000347</t>
+    <t xml:space="preserve">Buscopan </t>
   </si>
   <si>
-    <t>Buscopan </t>
+    <t xml:space="preserve">Pain</t>
   </si>
   <si>
-    <t>Pain</t>
+    <t xml:space="preserve">Buscopan syrup 100ml </t>
   </si>
   <si>
-    <t>Buscopan syrup 100ml </t>
+    <t xml:space="preserve">6006127000408</t>
   </si>
   <si>
-    <t>6006127000408</t>
+    <t xml:space="preserve">Antistax tabs 30s </t>
   </si>
   <si>
-    <t>Antistax tabs 30s </t>
+    <t xml:space="preserve">6006127001580</t>
   </si>
   <si>
-    <t>6006127001580</t>
+    <t xml:space="preserve">Antistax </t>
   </si>
   <si>
-    <t>Antistax </t>
+    <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t>Other</t>
+    <t xml:space="preserve">Antistax tabs 60s </t>
   </si>
   <si>
-    <t>Antistax tabs 60s </t>
+    <t xml:space="preserve">6006127001498</t>
   </si>
   <si>
-    <t>6006127001498</t>
+    <t xml:space="preserve">Telfast Susp.150ml </t>
   </si>
   <si>
-    <t>Telfast Susp.150ml </t>
+    <t xml:space="preserve">6009609472335</t>
   </si>
   <si>
-    <t>6009609472335</t>
+    <t xml:space="preserve">Telfast </t>
   </si>
   <si>
-    <t>Telfast </t>
+    <t xml:space="preserve">Allergy</t>
   </si>
   <si>
-    <t>Allergy</t>
+    <t xml:space="preserve">Telfast tabs 180mg 30s </t>
   </si>
   <si>
-    <t>Telfast tabs 180mg 30s </t>
+    <t xml:space="preserve">6005317003205</t>
   </si>
   <si>
-    <t>6005317003205</t>
+    <t xml:space="preserve">Telfast Susp.300ml </t>
   </si>
   <si>
-    <t>Telfast Susp.300ml </t>
+    <t xml:space="preserve">6009609472328</t>
   </si>
   <si>
-    <t>6009609472328</t>
+    <t xml:space="preserve">Telfast tabs 120mg 30s </t>
   </si>
   <si>
-    <t>Telfast tabs 120mg 30s </t>
+    <t xml:space="preserve">6005317003151</t>
   </si>
   <si>
-    <t>6005317003151</t>
+    <t xml:space="preserve">Nasoclear 20ml</t>
   </si>
   <si>
-    <t>Nasoclear 20ml</t>
+    <t xml:space="preserve">Nasoclear</t>
   </si>
   <si>
-    <t>Nasoclear</t>
+    <t xml:space="preserve">Ignore empty</t>
   </si>
   <si>
-    <t>Ignore empty</t>
+    <t xml:space="preserve">Clicks</t>
   </si>
   <si>
-    <t>Dulcolax Adult supps. 10s, Dulcolax tabs 40s , Dulcolax tabs 60s ,Dulcolax 200s ,Dulcolax pead Supps 10s ,Dulcolax tabs 10s ,Dulcolax tabs 30s </t>
+    <t xml:space="preserve">Dulcolax Adult supps. 10s, Dulcolax tabs 40s , Dulcolax tabs 60s ,Dulcolax 200s ,Dulcolax pead Supps 10s ,Dulcolax tabs 10s ,Dulcolax tabs 30s </t>
   </si>
   <si>
-    <t>6006127000460,6006127001238,6006127000477,6006127001535,6006127000491</t>
+    <t xml:space="preserve">6006127000460,6006127001238,6006127000477,6006127001535,6006127000491</t>
   </si>
   <si>
-    <t>Gastrochoice IBS30 ,Gastrochoice IBS10 ,Gastrochoice Tabs 10 ,Gastrochoice Tabs30 </t>
+    <t xml:space="preserve">Gastrochoice IBS30 ,Gastrochoice IBS10 ,Gastrochoice Tabs 10 ,Gastrochoice Tabs30 </t>
   </si>
   <si>
-    <t>Essestiale extreme 100s , Essentiale 20s,Essentiale extreme 50s  </t>
+    <t xml:space="preserve">Essestiale extreme 100s , Essentiale 20s,Essentiale extreme 50s  </t>
   </si>
   <si>
-    <t>6009609472281,6009609472250,6009609472267</t>
+    <t xml:space="preserve">6009609472281,6009609472250,6009609472267</t>
   </si>
   <si>
-    <t>Bisolvon 200ml ,Bisolvon 100ml </t>
+    <t xml:space="preserve">Bisolvon 200ml ,Bisolvon 100ml </t>
   </si>
   <si>
-    <t>6006127000293,6006127000286</t>
+    <t xml:space="preserve">6006127000293,6006127000286</t>
   </si>
   <si>
-    <t>Pharmaton caps 30s , Pharmaton Kiddie chews 30s( KS),Pharmaton Kiddie syrup 100ml (KS), Pharmaton Proactive 30s, Pharmaton 90s ,Pharmaton caps 60s</t>
+    <t xml:space="preserve">Pharmaton caps 30s , Pharmaton Kiddie chews 30s( KS),Pharmaton Kiddie syrup 100ml (KS), Pharmaton Proactive 30s, Pharmaton 90s ,Pharmaton caps 60s</t>
   </si>
   <si>
-    <t>6006127000705,6006127000958,6006127001764,6006127001504</t>
+    <t xml:space="preserve">6006127000705,6006127000958,6006127001764,6006127001504</t>
   </si>
   <si>
-    <t>Viral choice 60s ,Viral ChoiceJNR Chews 30s , Viral Choice JNR Syrup Orange 200ml , Viral choice Caps 30s, Viral choice Caps 120s, Viral choice eff 10s ,Viral choice eff 30s </t>
+    <t xml:space="preserve">Viral choice 60s ,Viral ChoiceJNR Chews 30s , Viral Choice JNR Syrup Orange 200ml , Viral choice Caps 30s, Viral choice Caps 120s, Viral choice eff 10s ,Viral choice eff 30s </t>
   </si>
   <si>
-    <t>6009609470249,6009609470751,6009609470300,6009609470317</t>
+    <t xml:space="preserve">6009609470249,6009609470751,6009609470300,6009609470317</t>
   </si>
   <si>
-    <t>Buscopan Tabs 10s ,Buscopan syrup 100ml </t>
+    <t xml:space="preserve">Buscopan Tabs 10s ,Buscopan syrup 100ml </t>
   </si>
   <si>
-    <t>6006127000347,6006127000408</t>
+    <t xml:space="preserve">6006127000347,6006127000408</t>
   </si>
   <si>
-    <t>Antistax tabs 30s ,Antistax  Gel 125ml ,Antistax tabs 60s  ,Antistax 90s </t>
+    <t xml:space="preserve">Antistax tabs 30s ,Antistax  Gel 125ml ,Antistax tabs 60s  ,Antistax 90s </t>
   </si>
   <si>
-    <t>6006127001580,6006127001498</t>
+    <t xml:space="preserve">6006127001580,6006127001498</t>
   </si>
   <si>
-    <t>Telfast Susp.150ml ,Telfast tabs 120mg 30s ,Telfast Susp.300ml ,Telfast tabs 180mg 30s </t>
+    <t xml:space="preserve">Telfast Susp.150ml ,Telfast tabs 120mg 30s ,Telfast Susp.300ml ,Telfast tabs 180mg 30s </t>
   </si>
   <si>
-    <t>6009609472335,6005317003151,6005317003205,6009609472328</t>
+    <t xml:space="preserve">6009609472335,6005317003151,6005317003205,6009609472328</t>
   </si>
   <si>
-    <t>S Dulcolax Shelf Talker/Strip</t>
+    <t xml:space="preserve">S Dulcolax Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>S-STS-01</t>
+    <t xml:space="preserve">S-STS-01</t>
   </si>
   <si>
-    <t>S Antistax Shelf Talker/Strip</t>
+    <t xml:space="preserve">S Antistax Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>S-STS-02</t>
+    <t xml:space="preserve">S-STS-02</t>
   </si>
   <si>
-    <t>Antistax</t>
+    <t xml:space="preserve">Antistax</t>
   </si>
   <si>
-    <t>Others</t>
+    <t xml:space="preserve">Others</t>
   </si>
   <si>
-    <t>S Telfast Shelf Talker/Strip</t>
+    <t xml:space="preserve">S Telfast Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>S-STS-03</t>
+    <t xml:space="preserve">S-STS-03</t>
   </si>
   <si>
-    <t>Telfast</t>
+    <t xml:space="preserve">Telfast</t>
   </si>
   <si>
-    <t>S Gastrochoice Shelf Talker/Strip</t>
+    <t xml:space="preserve">S Gastrochoice Shelf Talker/Strip</t>
   </si>
   <si>
-    <t>S-STS-04</t>
+    <t xml:space="preserve">S-STS-04</t>
   </si>
   <si>
-    <t>Gastrochoice</t>
+    <t xml:space="preserve">Gastrochoice</t>
   </si>
   <si>
-    <t>S Buscopan Counter Top Unit</t>
+    <t xml:space="preserve">S Buscopan Counter Top Unit</t>
   </si>
   <si>
-    <t>S-CTU-01</t>
+    <t xml:space="preserve">S-CTU-01</t>
   </si>
   <si>
-    <t>Buscopan</t>
+    <t xml:space="preserve">Buscopan</t>
   </si>
   <si>
-    <t>S Essentiale Counter Top Unit</t>
+    <t xml:space="preserve">S Essentiale Counter Top Unit</t>
   </si>
   <si>
-    <t>S-CTU-02</t>
+    <t xml:space="preserve">S-CTU-02</t>
   </si>
   <si>
-    <t>S Essentiale Dump Bin</t>
+    <t xml:space="preserve">S Essentiale Dump Bin</t>
   </si>
   <si>
-    <t>S-DB-01</t>
+    <t xml:space="preserve">S-DB-01</t>
   </si>
   <si>
-    <t>S Antistax Parasite Unit</t>
+    <t xml:space="preserve">S Antistax Parasite Unit</t>
   </si>
   <si>
-    <t>S-PU-02</t>
+    <t xml:space="preserve">S-PU-02</t>
   </si>
   <si>
-    <t>S Gastrochoice Parasite Unit</t>
+    <t xml:space="preserve">S Gastrochoice Parasite Unit</t>
   </si>
   <si>
-    <t>S-PU-03</t>
+    <t xml:space="preserve">S-PU-03</t>
   </si>
   <si>
-    <t>S Dulcolax Clip Strip</t>
+    <t xml:space="preserve">S Dulcolax Clip Strip</t>
   </si>
   <si>
-    <t>S-CT-01</t>
+    <t xml:space="preserve">S-CT-01</t>
   </si>
   <si>
-    <t>S Essentiale Clip Strip</t>
+    <t xml:space="preserve">S Essentiale Clip Strip</t>
   </si>
   <si>
-    <t>S-CT-02</t>
+    <t xml:space="preserve">S-CT-02</t>
   </si>
   <si>
-    <t>S Antistax Clip Strip</t>
+    <t xml:space="preserve">S Antistax Clip Strip</t>
   </si>
   <si>
-    <t>S-CT-03</t>
+    <t xml:space="preserve">S-CT-03</t>
   </si>
   <si>
-    <t>SKUs</t>
+    <t xml:space="preserve">Nasoclear </t>
   </si>
   <si>
-    <t>Shelf Location Compliance</t>
+    <t xml:space="preserve">Product Minimum Facing Secondary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Location Compliance</t>
   </si>
 </sst>
 </file>
@@ -587,7 +597,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
@@ -725,7 +735,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,8 +802,14 @@
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -955,6 +971,34 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -987,7 +1031,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="117">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1352,19 +1396,91 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1445,7 +1561,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1465,10 +1581,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1476,19 +1588,19 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9716599190283"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.2024291497976"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,24 +1836,24 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="22" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="51.5384615384615"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="25.336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="22" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="11.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="22" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,7 +1871,7 @@
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="M1" s="0"/>
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
       <c r="P1" s="0"/>
@@ -2770,9 +2882,8 @@
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="52.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2806,12 +2917,10 @@
       <c r="K2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>39</v>
-      </c>
+      <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
@@ -3822,23 +3931,22 @@
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="38" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>43</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="40" t="n">
@@ -3850,18 +3958,16 @@
       <c r="I3" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="40" t="n">
+      <c r="J3" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="42" t="n">
-        <v>1</v>
-      </c>
+      <c r="L3" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
@@ -4872,23 +4978,22 @@
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>45</v>
-      </c>
       <c r="D4" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>42</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>43</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="40" t="n">
@@ -4900,18 +5005,16 @@
       <c r="I4" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="40" t="n">
+      <c r="J4" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="42" t="n">
+      <c r="L4" s="42" t="n">
         <v>0</v>
       </c>
+      <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
@@ -5922,23 +6025,22 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="43" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>47</v>
-      </c>
       <c r="D5" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>42</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>43</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="40" t="n">
@@ -5950,34 +6052,32 @@
       <c r="I5" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="40" t="n">
+      <c r="J5" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="42" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>49</v>
-      </c>
       <c r="D6" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="40" t="n">
@@ -5989,34 +6089,31 @@
       <c r="I6" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="40" t="n">
-        <v>1</v>
+      <c r="J6" s="41" t="n">
+        <v>0</v>
       </c>
       <c r="K6" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>51</v>
-      </c>
       <c r="D7" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>43</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="40" t="n">
@@ -6026,36 +6123,33 @@
         <v>1</v>
       </c>
       <c r="I7" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="41" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="41" t="n">
+      <c r="L7" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="42" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>54</v>
-      </c>
       <c r="E8" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="40" t="n">
@@ -6067,34 +6161,31 @@
       <c r="I8" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="40" t="n">
+      <c r="J8" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="42" t="n">
+      <c r="L8" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>57</v>
-      </c>
       <c r="E9" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="40" t="n">
@@ -6106,34 +6197,31 @@
       <c r="I9" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="40" t="n">
+      <c r="J9" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K9" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="42" t="n">
+      <c r="L9" s="42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>59</v>
-      </c>
       <c r="D10" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="40" t="n">
@@ -6145,34 +6233,31 @@
       <c r="I10" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="40" t="n">
-        <v>1</v>
+      <c r="J10" s="41" t="n">
+        <v>0</v>
       </c>
       <c r="K10" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="41" t="n">
+      <c r="L10" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="42" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>61</v>
-      </c>
       <c r="D11" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="40" t="n">
@@ -6184,34 +6269,31 @@
       <c r="I11" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="40" t="n">
+      <c r="J11" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="42" t="n">
+      <c r="L11" s="42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="D12" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="E12" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>65</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="40" t="n">
@@ -6223,34 +6305,31 @@
       <c r="I12" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="40" t="n">
-        <v>1</v>
+      <c r="J12" s="41" t="n">
+        <v>0</v>
       </c>
       <c r="K12" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="42" t="n">
+      <c r="L12" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>67</v>
-      </c>
       <c r="D13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>65</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="40" t="n">
@@ -6262,34 +6341,31 @@
       <c r="I13" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="40" t="n">
-        <v>1</v>
+      <c r="J13" s="41" t="n">
+        <v>0</v>
       </c>
       <c r="K13" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="41" t="n">
+      <c r="L13" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="42" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="D14" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="E14" s="38" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>71</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="40" t="n">
@@ -6301,34 +6377,31 @@
       <c r="I14" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="40" t="n">
+      <c r="J14" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="42" t="n">
+      <c r="L14" s="42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>73</v>
-      </c>
       <c r="D15" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>70</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>71</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="40" t="n">
@@ -6340,34 +6413,31 @@
       <c r="I15" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J15" s="40" t="n">
+      <c r="J15" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="42" t="n">
+      <c r="L15" s="42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>75</v>
-      </c>
       <c r="D16" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>71</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="40" t="n">
@@ -6377,36 +6447,33 @@
         <v>1</v>
       </c>
       <c r="I16" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="41" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="L16" s="41" t="n">
+      <c r="L16" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="42" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>77</v>
-      </c>
       <c r="D17" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>70</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>71</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="40" t="n">
@@ -6418,34 +6485,31 @@
       <c r="I17" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="40" t="n">
+      <c r="J17" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K17" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M17" s="42" t="n">
+      <c r="L17" s="42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="D18" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>80</v>
-      </c>
       <c r="E18" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="40" t="n">
@@ -6457,34 +6521,31 @@
       <c r="I18" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="40" t="n">
+      <c r="J18" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M18" s="42" t="n">
+      <c r="L18" s="42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>82</v>
-      </c>
       <c r="D19" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="40" t="n">
@@ -6496,34 +6557,31 @@
       <c r="I19" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="40" t="n">
-        <v>1</v>
+      <c r="J19" s="41" t="n">
+        <v>0</v>
       </c>
       <c r="K19" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="L19" s="41" t="n">
+      <c r="L19" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="M19" s="42" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>84</v>
-      </c>
       <c r="D20" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="40" t="n">
@@ -6535,34 +6593,31 @@
       <c r="I20" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="40" t="n">
+      <c r="J20" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L20" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="42" t="n">
+      <c r="L20" s="42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>86</v>
-      </c>
       <c r="D21" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="40" t="n">
@@ -6572,36 +6627,33 @@
         <v>1</v>
       </c>
       <c r="I21" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="41" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="L21" s="41" t="n">
+      <c r="L21" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="M21" s="42" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="D22" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="E22" s="38" t="s">
         <v>89</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>90</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="40" t="n">
@@ -6613,34 +6665,31 @@
       <c r="I22" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="40" t="n">
+      <c r="J22" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L22" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="42" t="n">
+      <c r="L22" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>92</v>
-      </c>
       <c r="D23" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>89</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>90</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="40" t="n">
@@ -6652,34 +6701,31 @@
       <c r="I23" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="40" t="n">
+      <c r="J23" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K23" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="42" t="n">
+      <c r="L23" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="D24" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="E24" s="38" t="s">
         <v>95</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>96</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="40" t="n">
@@ -6691,34 +6737,31 @@
       <c r="I24" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="40" t="n">
+      <c r="J24" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M24" s="42" t="n">
+      <c r="L24" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>98</v>
-      </c>
       <c r="D25" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="38" t="s">
         <v>95</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>96</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="40" t="n">
@@ -6730,34 +6773,31 @@
       <c r="I25" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="40" t="n">
+      <c r="J25" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="42" t="n">
+      <c r="L25" s="42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="D26" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="E26" s="38" t="s">
         <v>101</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>102</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="40" t="n">
@@ -6769,34 +6809,31 @@
       <c r="I26" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="40" t="n">
+      <c r="J26" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L26" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="42" t="n">
+      <c r="L26" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="38" t="s">
-        <v>104</v>
-      </c>
       <c r="D27" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="38" t="s">
         <v>101</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>102</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="40" t="n">
@@ -6808,34 +6845,31 @@
       <c r="I27" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="40" t="n">
+      <c r="J27" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M27" s="42" t="n">
+      <c r="L27" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>106</v>
-      </c>
       <c r="D28" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="38" t="s">
         <v>101</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>102</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="n">
@@ -6847,34 +6881,31 @@
       <c r="I28" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="40" t="n">
+      <c r="J28" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M28" s="42" t="n">
+      <c r="L28" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>108</v>
-      </c>
       <c r="D29" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="38" t="s">
         <v>101</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>102</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="40" t="n">
@@ -6886,34 +6917,31 @@
       <c r="I29" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="40" t="n">
-        <v>1</v>
+      <c r="J29" s="41" t="n">
+        <v>0</v>
       </c>
       <c r="K29" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="L29" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="42" t="n">
+      <c r="L29" s="42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="45" t="n">
         <v>6009609473608</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="40" t="n">
@@ -6925,105 +6953,20 @@
       <c r="I30" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J30" s="40" t="n">
+      <c r="J30" s="41" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="42" t="n">
+      <c r="L30" s="42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:H18"/>
+  <autoFilter ref="A2:G18"/>
   <mergeCells count="1">
-    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G1:L1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7045,21 +6988,21 @@
   <dimension ref="A1:AMI12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="22" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="56.8016194331984"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="22" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8106,28 +8049,28 @@
         <v>29</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="52" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="J2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="L2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="M2" s="53" t="s">
         <v>38</v>
-      </c>
-      <c r="M2" s="53" t="s">
-        <v>39</v>
       </c>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
@@ -9140,15 +9083,15 @@
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>43</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>112</v>
@@ -10189,15 +10132,15 @@
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>114</v>
@@ -10228,15 +10171,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>115</v>
@@ -10272,10 +10215,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>65</v>
       </c>
       <c r="D6" s="56" t="s">
         <v>117</v>
@@ -10297,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="61" t="n">
         <v>1</v>
@@ -10306,15 +10249,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>70</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>71</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>119</v>
@@ -10345,15 +10288,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>121</v>
@@ -10389,10 +10332,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="66" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>90</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>123</v>
@@ -10428,10 +10371,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="66" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>96</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>125</v>
@@ -10462,15 +10405,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="66" t="s">
         <v>101</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>102</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>127</v>
@@ -10501,18 +10444,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="71" t="n">
         <v>6009609473608</v>
@@ -10560,22 +10503,22 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="22" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="24.9716599190283"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="23.0161943319838"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1023" min="7" style="22" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10592,9 +10535,8 @@
       <c r="I1" s="73"/>
       <c r="J1" s="73"/>
       <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
     </row>
-    <row r="2" customFormat="false" ht="52.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
@@ -10625,14 +10567,11 @@
       <c r="J2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="53" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
         <v>7</v>
       </c>
@@ -10643,11 +10582,11 @@
         <v>130</v>
       </c>
       <c r="D3" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="60" t="n">
         <v>1</v>
       </c>
@@ -10663,14 +10602,11 @@
       <c r="J3" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="61" t="n">
+      <c r="K3" s="61" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
         <v>7</v>
       </c>
@@ -10701,14 +10637,11 @@
       <c r="J4" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="61" t="n">
+      <c r="K4" s="61" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
         <v>7</v>
       </c>
@@ -10722,7 +10655,7 @@
         <v>137</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="60" t="n">
         <v>0</v>
@@ -10739,14 +10672,11 @@
       <c r="J5" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="60" t="n">
+      <c r="K5" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="61" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="74" t="s">
         <v>7</v>
       </c>
@@ -10760,31 +10690,28 @@
         <v>140</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="60" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="60" t="n">
+      <c r="K6" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="61" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="79" t="s">
         <v>17</v>
       </c>
@@ -10798,31 +10725,28 @@
         <v>143</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="60" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="60" t="n">
+      <c r="K7" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="61" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="79" t="s">
         <v>17</v>
       </c>
@@ -10833,34 +10757,31 @@
         <v>145</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="60" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="60" t="n">
+      <c r="K8" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="61" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="79" t="s">
         <v>17</v>
       </c>
@@ -10871,10 +10792,10 @@
         <v>147</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="60" t="n">
         <v>1</v>
@@ -10891,14 +10812,11 @@
       <c r="J9" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="60" t="n">
+      <c r="K9" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="61" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="79" t="s">
         <v>17</v>
       </c>
@@ -10918,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="60" t="n">
         <v>0</v>
@@ -10929,14 +10847,11 @@
       <c r="J10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="60" t="n">
+      <c r="K10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="61" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="79" t="s">
         <v>17</v>
       </c>
@@ -10950,31 +10865,28 @@
         <v>140</v>
       </c>
       <c r="E11" s="80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="60" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="60" t="n">
         <v>0</v>
-      </c>
-      <c r="H11" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="60" t="n">
-        <v>1</v>
       </c>
       <c r="J11" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="60" t="n">
+      <c r="K11" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="61" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="79" t="s">
         <v>17</v>
       </c>
@@ -10985,10 +10897,10 @@
         <v>153</v>
       </c>
       <c r="D12" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="78" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>43</v>
       </c>
       <c r="F12" s="60" t="n">
         <v>0</v>
@@ -11005,14 +10917,11 @@
       <c r="J12" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="61" t="n">
+      <c r="K12" s="61" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -11023,16 +10932,16 @@
         <v>155</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="60" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="60" t="n">
         <v>0</v>
@@ -11043,14 +10952,11 @@
       <c r="J13" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="K13" s="60" t="n">
+      <c r="K13" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="61" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="81" t="s">
         <v>17</v>
       </c>
@@ -11070,28 +10976,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="87" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="F1:K1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11109,23 +11011,23 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="22" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="22" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="30.1133603238866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="51.5384615384615"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="25.336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="22" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="13.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1022" min="9" style="22" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11142,7 +11044,7 @@
       <c r="I1" s="88"/>
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="L1" s="0"/>
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
@@ -12153,9 +12055,8 @@
       <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
@@ -12186,12 +12087,10 @@
       <c r="J2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="53" t="s">
-        <v>39</v>
-      </c>
+      <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
@@ -13202,45 +13101,42 @@
       <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="61" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
@@ -14251,45 +14147,38 @@
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="61" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
@@ -15300,485 +15189,1157 @@
       <c r="AMF4" s="0"/>
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
-      <c r="AMI4" s="0"/>
     </row>
-    <row r="5" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="61" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="61" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="80" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="91" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="92"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="92"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="92"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="60" t="n">
+      <c r="C23" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="96" t="n">
+        <v>6009609473608</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" s="91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" s="91" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" s="91" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="60" t="n">
+      <c r="K31" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="61" t="n">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" s="91" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" s="91" t="n">
+        <v>4</v>
+      </c>
+      <c r="J32" s="91" t="n">
         <v>0</v>
       </c>
+      <c r="K32" s="91" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="77" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="C33" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="93" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" s="93" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="93" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" s="93" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="93" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="60" t="n">
+      <c r="C38" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="60" t="n">
+      <c r="G38" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="61" t="n">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="93" t="n">
         <v>0</v>
       </c>
+      <c r="G39" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="91" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:F14"/>
   <mergeCells count="1">
-    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="F1:K1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15787,7 +16348,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15805,13 +16365,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="22" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="22" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="22" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15840,7 +16400,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>29</v>
@@ -15849,125 +16409,125 @@
         <v>33</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="36" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="95" t="s">
-        <v>159</v>
+      <c r="A3" s="113" t="s">
+        <v>161</v>
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="116"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="95" t="s">
-        <v>159</v>
+      <c r="A4" s="113" t="s">
+        <v>161</v>
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="98"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="95" t="s">
-        <v>159</v>
+      <c r="A5" s="113" t="s">
+        <v>161</v>
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="116"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="95" t="s">
-        <v>159</v>
+      <c r="A6" s="113" t="s">
+        <v>161</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="98"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="95" t="s">
-        <v>159</v>
+      <c r="A7" s="113" t="s">
+        <v>161</v>
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="98"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="116"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="95" t="s">
-        <v>159</v>
+      <c r="A8" s="113" t="s">
+        <v>161</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="55"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="98"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="116"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="95" t="s">
-        <v>159</v>
+      <c r="A9" s="113" t="s">
+        <v>161</v>
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="98"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="116"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G9"/>

--- a/Projects/SANOFIZA/Data/Template.xlsx
+++ b/Projects/SANOFIZA/Data/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="MSL" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Primary Shelf_Location" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Primary Shelf_Location" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="Primary_Brand_Blocking" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Primary&amp;Secondary_POSM" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Primary&amp;Secondary_Facings" sheetId="6" state="visible" r:id="rId7"/>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="132">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -578,6 +578,12 @@
     <t xml:space="preserve">Shelf Location Compliance</t>
   </si>
   <si>
+    <t xml:space="preserve">Enterogermina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTEROGERMINA SUSP 5ML 10 BOT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mega</t>
   </si>
   <si>
@@ -683,7 +689,7 @@
     <t xml:space="preserve">Mega Pharmacies</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Minimum Facing Secondary </t>
+    <t xml:space="preserve">Product Minimum Facings Secondary </t>
   </si>
   <si>
     <t xml:space="preserve">S-CT-03</t>
@@ -1065,7 +1071,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1206,6 +1212,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="18" fillId="6" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1292,6 +1302,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1436,6 +1450,14 @@
     </xf>
     <xf numFmtId="164" fontId="21" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1518,19 +1540,19 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1773,10 +1795,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="21" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="21" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="22" width="9.4251012145749"/>
@@ -2587,215 +2609,227 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="34" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="34" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="22" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="34" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="34" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="35" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+    <row r="1" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
+      <c r="B3" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="21" t="n">
+        <v>311922</v>
+      </c>
+      <c r="F3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2820,25 +2854,25 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="46" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="46" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="46" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="47" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="47" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="47" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="47" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="48" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="24" t="s">
         <v>27</v>
       </c>
@@ -2849,34 +2883,34 @@
       <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="50" t="s">
+      <c r="G2" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="51" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="28" t="s">
@@ -2884,7 +2918,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -2894,32 +2928,32 @@
         <v>42</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="54" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -2929,32 +2963,32 @@
         <v>42</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="56" t="n">
+        <v>98</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -2964,32 +2998,32 @@
         <v>61</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="56" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -2999,32 +3033,32 @@
         <v>61</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="56" t="n">
+        <v>103</v>
+      </c>
+      <c r="F6" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -3034,32 +3068,32 @@
         <v>74</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="56" t="n">
+        <v>104</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="29" t="s">
@@ -3069,32 +3103,32 @@
         <v>80</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="56" t="n">
+        <v>106</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -3104,27 +3138,27 @@
         <v>86</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="56" t="n">
+        <v>108</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3157,19 +3191,19 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="57" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="34" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="57" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="34" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="58" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="58" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="58" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="58" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="58" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="60" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3188,34 +3222,34 @@
       <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="50" t="s">
+      <c r="G2" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="50" t="s">
+      <c r="I2" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="51" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="28" t="s">
@@ -3223,328 +3257,328 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="62" t="s">
+      <c r="B3" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="65" t="n">
+      <c r="F3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="B4" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="C4" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="65" t="n">
+      <c r="D4" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="E8" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="67" t="s">
+      <c r="F8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
+      <c r="F9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="74" t="n">
+      <c r="B10" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="59"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3575,26 +3609,26 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="83" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="83" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="83" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="83" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="83" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="83" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="84" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="85" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="85" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="85" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="85" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="85" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="85" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="86" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="24" t="s">
         <v>27</v>
       </c>
@@ -3606,19 +3640,19 @@
       <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87" t="s">
+      <c r="A2" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="89" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="27" t="s">
@@ -3628,13 +3662,13 @@
         <v>33</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>35</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>37</v>
@@ -3644,7 +3678,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -3659,30 +3693,30 @@
       <c r="E3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="89" t="n">
+      <c r="F3" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -3697,26 +3731,26 @@
       <c r="E4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
+      <c r="F4" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -3731,30 +3765,30 @@
       <c r="E5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="89" t="n">
+      <c r="F5" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -3769,26 +3803,26 @@
       <c r="E6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="89" t="n">
+      <c r="F6" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -3803,22 +3837,22 @@
       <c r="E7" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89"/>
+      <c r="F7" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="29" t="s">
@@ -3833,28 +3867,28 @@
       <c r="E8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="90" t="n">
+      <c r="F8" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="88" t="n">
+      <c r="G8" s="90" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="88" t="n">
+      <c r="H8" s="90" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89" t="n">
+      <c r="I8" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -3869,26 +3903,26 @@
       <c r="E9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89" t="n">
+      <c r="F9" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -3903,28 +3937,28 @@
       <c r="E10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" s="89"/>
+      <c r="F10" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="91"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -3939,28 +3973,28 @@
       <c r="E11" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="90" t="n">
+      <c r="F11" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" s="89"/>
+      <c r="H11" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" s="91"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="29" t="s">
@@ -3975,26 +4009,26 @@
       <c r="E12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="90" t="n">
+      <c r="F12" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
+      <c r="H12" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
@@ -4009,24 +4043,24 @@
       <c r="E13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
+      <c r="F13" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -4041,26 +4075,26 @@
       <c r="E14" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
+      <c r="F14" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -4075,24 +4109,24 @@
       <c r="E15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
+      <c r="F15" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -4107,30 +4141,30 @@
       <c r="E16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="89" t="n">
+      <c r="F16" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="29" t="s">
@@ -4145,30 +4179,30 @@
       <c r="E17" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="89" t="n">
+      <c r="F17" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="29" t="s">
@@ -4183,30 +4217,30 @@
       <c r="E18" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="88" t="n">
+      <c r="F18" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="90" t="n">
         <v>4</v>
       </c>
-      <c r="H18" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="89" t="n">
+      <c r="H18" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -4221,28 +4255,28 @@
       <c r="E19" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="88" t="n">
+      <c r="F19" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="90" t="n">
         <v>4</v>
       </c>
-      <c r="H19" s="88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89" t="n">
+      <c r="H19" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="90"/>
+      <c r="L19" s="91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -4257,30 +4291,30 @@
       <c r="E20" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="88" t="n">
+      <c r="F20" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="29" t="s">
@@ -4295,175 +4329,175 @@
       <c r="E21" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="62" t="s">
+      <c r="F21" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="90" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="90" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" s="90" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="92" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="E25" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="90" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="88" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" s="88" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" s="88" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="90" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="88" t="n">
+      <c r="F25" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,7 +4506,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A22" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A21" type="list">
       <formula1>"Product Minimum Facings Primary,Product Minimum Facing Secondary "</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Projects/SANOFIZA/Data/Template.xlsx
+++ b/Projects/SANOFIZA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -921,7 +921,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1050,11 +1050,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1306,7 +1301,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1415,10 +1410,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1503,10 +1494,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1515,7 +1502,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1523,7 +1510,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1563,35 +1550,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="22" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="23" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1675,19 +1654,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1951,12 +1930,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
@@ -2765,20 +2744,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="27" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2800,142 +2779,142 @@
       <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="21"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2960,25 +2939,25 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="36" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="37" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="35" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="36" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -3024,19 +3003,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="24" t="n">
@@ -3059,19 +3038,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="42" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="24"/>
@@ -3092,19 +3071,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="42" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="24"/>
@@ -3125,19 +3104,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="24"/>
@@ -3158,19 +3137,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="24"/>
@@ -3191,19 +3170,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="45" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="24" t="n">
@@ -3226,19 +3205,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="24"/>
@@ -3259,19 +3238,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="24"/>
@@ -3292,19 +3271,19 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="45" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="24" t="n">
@@ -3327,19 +3306,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="45" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="24"/>
@@ -3360,19 +3339,19 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="45" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="24"/>
@@ -3393,19 +3372,19 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="45" t="s">
         <v>103</v>
       </c>
       <c r="F14" s="24" t="n">
@@ -3428,19 +3407,19 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="45" t="s">
         <v>73</v>
       </c>
       <c r="F15" s="24"/>
@@ -3461,19 +3440,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="45" t="s">
         <v>106</v>
       </c>
       <c r="F16" s="24" t="n">
@@ -3496,19 +3475,19 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="45" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="24"/>
@@ -3529,19 +3508,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="45" t="s">
         <v>109</v>
       </c>
       <c r="F18" s="24" t="n">
@@ -3564,19 +3543,19 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="45" t="s">
         <v>84</v>
       </c>
       <c r="F19" s="24"/>
@@ -3597,19 +3576,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="45" t="s">
         <v>113</v>
       </c>
       <c r="F20" s="24" t="n">
@@ -3632,11 +3611,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -3741,22 +3720,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="49" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="50" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="49" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="50" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="50" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="49" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="49" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="51" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="49" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3775,34 +3754,34 @@
       <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="51" t="s">
         <v>40</v>
       </c>
       <c r="K2" s="19" t="s">
@@ -3810,261 +3789,252 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="33" t="n">
+      <c r="F3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>107</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="33" t="n">
+      <c r="F4" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="55" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="33" t="n">
+      <c r="F5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="56" t="s">
         <v>124</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="33" t="n">
+      <c r="F6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="56" t="s">
         <v>124</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="33" t="n">
+      <c r="F7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="55" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="33" t="n">
+      <c r="F8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="55" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="33" t="n">
+      <c r="F9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="66"/>
+      <c r="C10" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4094,21 +4064,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="67" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="67" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="67" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="67" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="67" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="67" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="68" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="63" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="63" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="63" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="63" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="63" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="63" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="64" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -4119,34 +4089,34 @@
       <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="51" t="s">
         <v>40</v>
       </c>
       <c r="K2" s="19" t="s">
@@ -4154,7 +4124,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -4189,7 +4159,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -4224,7 +4194,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -4259,7 +4229,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4294,7 +4264,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -4329,7 +4299,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4364,7 +4334,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -4399,7 +4369,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -4434,7 +4404,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -4469,7 +4439,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4504,7 +4474,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -4539,7 +4509,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -4574,7 +4544,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -4609,7 +4579,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -4644,7 +4614,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -4679,7 +4649,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -4714,7 +4684,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -4749,7 +4719,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -4784,7 +4754,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B21" s="13" t="s">

--- a/Projects/SANOFIZA/Data/Template.xlsx
+++ b/Projects/SANOFIZA/Data/Template.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Private\svetar\Sanofi templates\SANOFI\South Frica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svetar\Desktop\SANOFI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E54384F-8BA5-453E-90FD-2C29971046B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF051521-9628-4C29-9161-06904763B682}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="7" r:id="rId1"/>
     <sheet name="MSL" sheetId="2" r:id="rId2"/>
-    <sheet name="Primary_Brand_Blocking" sheetId="4" r:id="rId3"/>
-    <sheet name="Primary&amp;Secondary_POSM" sheetId="5" r:id="rId4"/>
-    <sheet name="Primary&amp;Secondary_Facings" sheetId="6" r:id="rId5"/>
+    <sheet name="Primary Shelf_Location" sheetId="3" r:id="rId3"/>
+    <sheet name="Primary_Brand_Blocking" sheetId="4" r:id="rId4"/>
+    <sheet name="Primary&amp;Secondary_POSM" sheetId="5" r:id="rId5"/>
+    <sheet name="Primary&amp;Secondary_Facings" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -65,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{C2BB5A46-03AC-4509-9F44-831E822682E7}">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{AA1287FB-D8B7-411C-9103-017D80948F2C}">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{A1B93EBB-9590-45CA-9DEE-9936335A9E15}">
       <text>
         <r>
           <rPr>
@@ -107,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{33F6582A-7A71-4E64-BC45-02E71288C3D9}">
       <text>
         <r>
           <rPr>
@@ -241,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{319A1101-40C9-4268-9AC5-8189B2122174}">
       <text>
         <r>
           <rPr>
@@ -251,11 +252,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Name of POSM</t>
+          <t>Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{8D520A4A-C3E1-429C-9CD0-6C93E440413D}">
       <text>
         <r>
           <rPr>
@@ -265,59 +266,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>EAN of Required POSM in accordance with POSM template</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Pavel Chernykh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Brand of Required POSM in accordance with POSM template</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Pavel Chernykh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Category of Required POSM in accordance with POSM template</t>
+          <t>Brand and Category required for shelf location KPI</t>
         </r>
       </text>
     </comment>
@@ -367,7 +316,133 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B01C1C23-42CF-492F-81C5-93568F82CFF9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Name of POSM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{75F2A0D9-F572-42B2-8821-3183E8FD5CCB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>EAN of Required POSM in accordance with POSM template</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{8ACEF2D3-41C5-4064-BDDB-3B6E46912F0A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Pavel Chernykh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Brand of Required POSM in accordance with POSM template</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{76DC2E24-3770-46E0-8D6B-BED0843F13E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Pavel Chernykh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Category of Required POSM in accordance with POSM template</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Pavel Chernykh</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> must be identical with Store Type attribute in Store Template. </t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Field is case sensitive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{A1A88F69-3B04-4C7B-8611-8EA202765CC0}">
       <text>
         <r>
           <rPr>
@@ -381,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{C67A4A21-1856-49E9-B4ED-1B06CE4A6175}">
       <text>
         <r>
           <rPr>
@@ -395,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{90E3EEDF-7ED6-4F7A-A371-83F4B203FDC1}">
       <text>
         <r>
           <rPr>
@@ -409,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{052E734D-5D95-42A7-BA23-F5A3C71C9C1F}">
       <text>
         <r>
           <rPr>
@@ -428,7 +503,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="124">
   <si>
     <t>KPI Name</t>
   </si>
@@ -559,12 +634,18 @@
     <t>Dispensary</t>
   </si>
   <si>
+    <t xml:space="preserve">Dulcolax Adult supps.10s </t>
+  </si>
+  <si>
     <t>6006127000460</t>
   </si>
   <si>
     <t>Dulcolax</t>
   </si>
   <si>
+    <t>Digestive Health</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dulcolax tabs 30s </t>
   </si>
   <si>
@@ -589,6 +670,9 @@
     <t>6006127001238</t>
   </si>
   <si>
+    <t xml:space="preserve">Essentiale extreme 100s </t>
+  </si>
+  <si>
     <t>6009609472281</t>
   </si>
   <si>
@@ -616,6 +700,9 @@
     <t xml:space="preserve">Pharmaton </t>
   </si>
   <si>
+    <t>VMS</t>
+  </si>
+  <si>
     <t>Pharmaton caps 60s</t>
   </si>
   <si>
@@ -694,10 +781,46 @@
     <t>6005317003151</t>
   </si>
   <si>
-    <t>VMS</t>
-  </si>
-  <si>
-    <t>Digestive Health</t>
+    <t>Dulcolax Adult supps.10s,Dulcolax tabs 30s,Dulcolax tabs 10s,Dulcolax pead Supps 10s,Dulcolax tabs 60s</t>
+  </si>
+  <si>
+    <t>6006127000460,6006127000491,6006127001535,6006127000477,6006127001238</t>
+  </si>
+  <si>
+    <t>Essentiale extreme 100s,Essentiale extreme 50s,Essentiale 20s</t>
+  </si>
+  <si>
+    <t>6009609472281,6009609472267,6009609472250</t>
+  </si>
+  <si>
+    <t>Pharmaton caps 30s,Pharmaton caps 60s,Pharmaton Proactive 30s</t>
+  </si>
+  <si>
+    <t>6006127000705,6006127001504,6006127001764</t>
+  </si>
+  <si>
+    <t>Viral choice 60s,Viral choice Caps 120s</t>
+  </si>
+  <si>
+    <t>6009609470249,6009609470751</t>
+  </si>
+  <si>
+    <t>Buscopan Tabs 10s,Buscopan syrup 100ml</t>
+  </si>
+  <si>
+    <t>6006127000347,6006127000408</t>
+  </si>
+  <si>
+    <t>Antistax tabs 30s,Antistax tabs 60s</t>
+  </si>
+  <si>
+    <t>6006127001580,6006127001498</t>
+  </si>
+  <si>
+    <t>Telfast Susp.150ml,Telfast tabs 120mg 30s</t>
+  </si>
+  <si>
+    <t>6009609472335,6005317003151</t>
   </si>
   <si>
     <t>Mega</t>
@@ -706,107 +829,59 @@
     <t xml:space="preserve">Community Low </t>
   </si>
   <si>
+    <t xml:space="preserve">SA Dulcolax Shelf trays </t>
+  </si>
+  <si>
+    <t>SA _DUL_ST</t>
+  </si>
+  <si>
+    <t>SA Antistax Shelf tray</t>
+  </si>
+  <si>
+    <t>SA-ANT-ST</t>
+  </si>
+  <si>
     <t>Antistax</t>
   </si>
   <si>
+    <t xml:space="preserve">SA Essentiale Counter Unit </t>
+  </si>
+  <si>
+    <t>SA-ESS-CTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA Clip Strip </t>
+  </si>
+  <si>
+    <t>SA CS</t>
+  </si>
+  <si>
+    <t>Multibrand</t>
+  </si>
+  <si>
+    <t>Multicategory</t>
+  </si>
+  <si>
+    <t>SA  FSU</t>
+  </si>
+  <si>
+    <t>S-FSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA Essentiale Dumpbin </t>
+  </si>
+  <si>
+    <t>SA-ESS-DB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product Minimum Facings Primary </t>
-  </si>
-  <si>
-    <t>SA  FSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA Clip Strip </t>
-  </si>
-  <si>
-    <t>SA Antistax Shelf tray</t>
-  </si>
-  <si>
-    <t>SA _DUL_ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA Essentiale Dumpbin </t>
-  </si>
-  <si>
-    <t>6006127000460,6006127000491,6006127001535,6006127000477,6006127001238</t>
-  </si>
-  <si>
-    <t>6009609472281,6009609472267,6009609472250</t>
-  </si>
-  <si>
-    <t>Pharmaton caps 30s,Pharmaton caps 60s,Pharmaton Proactive 30s</t>
-  </si>
-  <si>
-    <t>6006127000705,6006127001504,6006127001764</t>
-  </si>
-  <si>
-    <t>Viral choice 60s,Viral choice Caps 120s</t>
-  </si>
-  <si>
-    <t>6009609470249,6009609470751</t>
-  </si>
-  <si>
-    <t>Buscopan Tabs 10s,Buscopan syrup 100ml</t>
-  </si>
-  <si>
-    <t>6006127000347,6006127000408</t>
-  </si>
-  <si>
-    <t>Antistax tabs 30s,Antistax tabs 60s</t>
-  </si>
-  <si>
-    <t>6006127001580,6006127001498</t>
-  </si>
-  <si>
-    <t>Telfast Susp.150ml,Telfast tabs 120mg 30s</t>
-  </si>
-  <si>
-    <t>6009609472335,6005317003151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essentiale extreme 100s </t>
-  </si>
-  <si>
-    <t>Essentiale extreme 100s,Essentiale extreme 50s,Essentiale 20s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA Essentiale Counter Unit </t>
-  </si>
-  <si>
-    <t>SA-ESS-CTU</t>
-  </si>
-  <si>
-    <t>SA-ESS-DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA Dulcolax Shelf trays </t>
-  </si>
-  <si>
-    <t>SA-ANT-ST</t>
-  </si>
-  <si>
-    <t>S-FSU</t>
-  </si>
-  <si>
-    <t>Multibrand</t>
-  </si>
-  <si>
-    <t>Multicategory</t>
-  </si>
-  <si>
-    <t>Dulcolax Adult supps.10s,Dulcolax tabs 30s,Dulcolax tabs 10s,Dulcolax pead Supps 10s,Dulcolax tabs 60s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dulcolax Adult supps.10s </t>
-  </si>
-  <si>
-    <t>SA CS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -820,6 +895,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -933,17 +1021,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -985,6 +1073,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1021,12 +1115,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
@@ -1040,7 +1128,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1161,21 +1249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1215,9 +1288,7 @@
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1230,7 +1301,24 @@
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1238,246 +1326,263 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1863,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,238 +1984,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="25" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="27"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2123,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,7 +2238,7 @@
     <col min="2" max="2" width="42.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="5" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="2"/>
@@ -2145,10 +2250,10 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2166,25 +2271,25 @@
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="50" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2193,16 +2298,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -2231,16 +2336,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="51" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>89</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -2269,16 +2374,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
@@ -2307,16 +2412,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -2345,16 +2450,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -2383,16 +2488,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -2421,16 +2526,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -2459,16 +2564,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>89</v>
+      <c r="E10" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -2497,16 +2602,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -2535,16 +2640,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
@@ -2573,16 +2678,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="E13" s="51" t="s">
         <v>65</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>88</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
@@ -2611,16 +2716,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>88</v>
+        <v>72</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
@@ -2649,16 +2754,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>88</v>
+        <v>72</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
@@ -2687,16 +2792,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -2725,16 +2830,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -2763,16 +2868,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
@@ -2801,16 +2906,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
@@ -2839,16 +2944,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
@@ -2877,16 +2982,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
@@ -2915,39 +3020,264 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" style="14" customWidth="1"/>
+    <col min="2" max="3" width="21" style="14" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21" style="14" customWidth="1"/>
+    <col min="6" max="7" width="17" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="41" style="31" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="3" width="20.5703125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="39" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="55" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -2965,504 +3295,504 @@
       <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="80" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="74" t="s">
+      <c r="B3" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="57">
+        <v>1</v>
+      </c>
+      <c r="G3" s="57">
+        <v>1</v>
+      </c>
+      <c r="H3" s="57">
+        <v>1</v>
+      </c>
+      <c r="I3" s="57">
+        <v>1</v>
+      </c>
+      <c r="J3" s="57">
+        <v>1</v>
+      </c>
+      <c r="K3" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63">
+        <v>1</v>
+      </c>
+      <c r="H4" s="63">
+        <v>1</v>
+      </c>
+      <c r="I4" s="63">
+        <v>1</v>
+      </c>
+      <c r="J4" s="63">
+        <v>0</v>
+      </c>
+      <c r="K4" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63">
+        <v>1</v>
+      </c>
+      <c r="H5" s="63">
+        <v>1</v>
+      </c>
+      <c r="I5" s="63">
+        <v>1</v>
+      </c>
+      <c r="J5" s="63">
+        <v>1</v>
+      </c>
+      <c r="K5" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63">
+        <v>1</v>
+      </c>
+      <c r="H6" s="63">
+        <v>1</v>
+      </c>
+      <c r="I6" s="63">
+        <v>1</v>
+      </c>
+      <c r="J6" s="63">
+        <v>1</v>
+      </c>
+      <c r="K6" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68">
+        <v>1</v>
+      </c>
+      <c r="H7" s="68">
+        <v>0</v>
+      </c>
+      <c r="I7" s="68">
+        <v>0</v>
+      </c>
+      <c r="J7" s="68">
+        <v>0</v>
+      </c>
+      <c r="K7" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="57">
+        <v>1</v>
+      </c>
+      <c r="G8" s="57">
+        <v>1</v>
+      </c>
+      <c r="H8" s="57">
+        <v>1</v>
+      </c>
+      <c r="I8" s="57">
+        <v>1</v>
+      </c>
+      <c r="J8" s="57">
+        <v>0</v>
+      </c>
+      <c r="K8" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63">
+        <v>1</v>
+      </c>
+      <c r="H9" s="63">
+        <v>1</v>
+      </c>
+      <c r="I9" s="63">
+        <v>0</v>
+      </c>
+      <c r="J9" s="63">
+        <v>0</v>
+      </c>
+      <c r="K9" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68">
+        <v>1</v>
+      </c>
+      <c r="H10" s="68">
+        <v>1</v>
+      </c>
+      <c r="I10" s="68">
+        <v>1</v>
+      </c>
+      <c r="J10" s="68">
+        <v>1</v>
+      </c>
+      <c r="K10" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="57">
+        <v>1</v>
+      </c>
+      <c r="G11" s="57">
+        <v>1</v>
+      </c>
+      <c r="H11" s="57">
+        <v>1</v>
+      </c>
+      <c r="I11" s="57">
+        <v>1</v>
+      </c>
+      <c r="J11" s="57">
+        <v>1</v>
+      </c>
+      <c r="K11" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63">
+        <v>1</v>
+      </c>
+      <c r="H12" s="63">
+        <v>1</v>
+      </c>
+      <c r="I12" s="63">
+        <v>1</v>
+      </c>
+      <c r="J12" s="63">
+        <v>0</v>
+      </c>
+      <c r="K12" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68">
+        <v>1</v>
+      </c>
+      <c r="H13" s="68">
+        <v>1</v>
+      </c>
+      <c r="I13" s="68">
+        <v>1</v>
+      </c>
+      <c r="J13" s="68">
+        <v>0</v>
+      </c>
+      <c r="K13" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="57">
+        <v>1</v>
+      </c>
+      <c r="G14" s="57">
+        <v>1</v>
+      </c>
+      <c r="H14" s="57">
+        <v>1</v>
+      </c>
+      <c r="I14" s="57">
+        <v>1</v>
+      </c>
+      <c r="J14" s="57">
+        <v>0</v>
+      </c>
+      <c r="K14" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68">
+        <v>1</v>
+      </c>
+      <c r="H15" s="68">
+        <v>1</v>
+      </c>
+      <c r="I15" s="68">
+        <v>1</v>
+      </c>
+      <c r="J15" s="68">
+        <v>0</v>
+      </c>
+      <c r="K15" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="57">
+        <v>0</v>
+      </c>
+      <c r="G16" s="57">
+        <v>1</v>
+      </c>
+      <c r="H16" s="57">
+        <v>1</v>
+      </c>
+      <c r="I16" s="57">
+        <v>1</v>
+      </c>
+      <c r="J16" s="57">
+        <v>1</v>
+      </c>
+      <c r="K16" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68">
+        <v>1</v>
+      </c>
+      <c r="H17" s="68">
+        <v>1</v>
+      </c>
+      <c r="I17" s="68">
+        <v>1</v>
+      </c>
+      <c r="J17" s="68">
+        <v>1</v>
+      </c>
+      <c r="K17" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="57">
+        <v>1</v>
+      </c>
+      <c r="G18" s="57">
+        <v>1</v>
+      </c>
+      <c r="H18" s="57">
+        <v>1</v>
+      </c>
+      <c r="I18" s="57">
+        <v>1</v>
+      </c>
+      <c r="J18" s="57">
+        <v>1</v>
+      </c>
+      <c r="K18" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68">
+        <v>1</v>
+      </c>
+      <c r="H19" s="68">
+        <v>1</v>
+      </c>
+      <c r="I19" s="68">
+        <v>1</v>
+      </c>
+      <c r="J19" s="68">
+        <v>0</v>
+      </c>
+      <c r="K19" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="57">
-        <v>1</v>
-      </c>
-      <c r="G3" s="57">
-        <v>1</v>
-      </c>
-      <c r="H3" s="57">
-        <v>1</v>
-      </c>
-      <c r="I3" s="57">
-        <v>1</v>
-      </c>
-      <c r="J3" s="57">
-        <v>1</v>
-      </c>
-      <c r="K3" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58">
-        <v>1</v>
-      </c>
-      <c r="H4" s="58">
-        <v>1</v>
-      </c>
-      <c r="I4" s="58">
-        <v>1</v>
-      </c>
-      <c r="J4" s="58">
-        <v>0</v>
-      </c>
-      <c r="K4" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58">
-        <v>1</v>
-      </c>
-      <c r="H5" s="58">
-        <v>1</v>
-      </c>
-      <c r="I5" s="58">
-        <v>1</v>
-      </c>
-      <c r="J5" s="58">
-        <v>1</v>
-      </c>
-      <c r="K5" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58">
-        <v>1</v>
-      </c>
-      <c r="H6" s="58">
-        <v>1</v>
-      </c>
-      <c r="I6" s="58">
-        <v>1</v>
-      </c>
-      <c r="J6" s="58">
-        <v>1</v>
-      </c>
-      <c r="K6" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59">
-        <v>1</v>
-      </c>
-      <c r="H7" s="59">
-        <v>0</v>
-      </c>
-      <c r="I7" s="59">
-        <v>0</v>
-      </c>
-      <c r="J7" s="59">
-        <v>0</v>
-      </c>
-      <c r="K7" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="57">
-        <v>1</v>
-      </c>
-      <c r="G8" s="57">
-        <v>1</v>
-      </c>
-      <c r="H8" s="57">
-        <v>1</v>
-      </c>
-      <c r="I8" s="57">
-        <v>1</v>
-      </c>
-      <c r="J8" s="57">
-        <v>0</v>
-      </c>
-      <c r="K8" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58">
-        <v>1</v>
-      </c>
-      <c r="H9" s="58">
-        <v>1</v>
-      </c>
-      <c r="I9" s="58">
-        <v>0</v>
-      </c>
-      <c r="J9" s="58">
-        <v>0</v>
-      </c>
-      <c r="K9" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="81"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59">
-        <v>1</v>
-      </c>
-      <c r="H10" s="59">
-        <v>1</v>
-      </c>
-      <c r="I10" s="59">
-        <v>1</v>
-      </c>
-      <c r="J10" s="59">
-        <v>1</v>
-      </c>
-      <c r="K10" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="57">
-        <v>1</v>
-      </c>
-      <c r="G11" s="57">
-        <v>1</v>
-      </c>
-      <c r="H11" s="57">
-        <v>1</v>
-      </c>
-      <c r="I11" s="57">
-        <v>1</v>
-      </c>
-      <c r="J11" s="57">
-        <v>1</v>
-      </c>
-      <c r="K11" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58">
-        <v>1</v>
-      </c>
-      <c r="H12" s="58">
-        <v>1</v>
-      </c>
-      <c r="I12" s="58">
-        <v>1</v>
-      </c>
-      <c r="J12" s="58">
-        <v>0</v>
-      </c>
-      <c r="K12" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59">
-        <v>1</v>
-      </c>
-      <c r="H13" s="59">
-        <v>1</v>
-      </c>
-      <c r="I13" s="59">
-        <v>1</v>
-      </c>
-      <c r="J13" s="59">
-        <v>0</v>
-      </c>
-      <c r="K13" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="62" t="s">
+      <c r="D20" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="57">
-        <v>1</v>
-      </c>
-      <c r="G14" s="57">
-        <v>1</v>
-      </c>
-      <c r="H14" s="57">
-        <v>1</v>
-      </c>
-      <c r="I14" s="57">
-        <v>1</v>
-      </c>
-      <c r="J14" s="57">
-        <v>0</v>
-      </c>
-      <c r="K14" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="81"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59">
-        <v>1</v>
-      </c>
-      <c r="H15" s="59">
-        <v>1</v>
-      </c>
-      <c r="I15" s="59">
-        <v>1</v>
-      </c>
-      <c r="J15" s="59">
-        <v>0</v>
-      </c>
-      <c r="K15" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="64" t="s">
+      <c r="E20" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="57">
-        <v>0</v>
-      </c>
-      <c r="G16" s="57">
-        <v>1</v>
-      </c>
-      <c r="H16" s="57">
-        <v>1</v>
-      </c>
-      <c r="I16" s="57">
-        <v>1</v>
-      </c>
-      <c r="J16" s="57">
-        <v>1</v>
-      </c>
-      <c r="K16" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="81"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59">
-        <v>1</v>
-      </c>
-      <c r="H17" s="59">
-        <v>1</v>
-      </c>
-      <c r="I17" s="59">
-        <v>1</v>
-      </c>
-      <c r="J17" s="59">
-        <v>1</v>
-      </c>
-      <c r="K17" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="57">
-        <v>1</v>
-      </c>
-      <c r="G18" s="57">
-        <v>1</v>
-      </c>
-      <c r="H18" s="57">
-        <v>1</v>
-      </c>
-      <c r="I18" s="57">
-        <v>1</v>
-      </c>
-      <c r="J18" s="57">
-        <v>1</v>
-      </c>
-      <c r="K18" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="81"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59">
-        <v>1</v>
-      </c>
-      <c r="H19" s="59">
-        <v>1</v>
-      </c>
-      <c r="I19" s="59">
-        <v>1</v>
-      </c>
-      <c r="J19" s="59">
-        <v>0</v>
-      </c>
-      <c r="K19" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>110</v>
-      </c>
       <c r="F20" s="57">
         <v>0</v>
       </c>
@@ -3483,72 +3813,47 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="81"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59">
-        <v>1</v>
-      </c>
-      <c r="H21" s="59">
-        <v>1</v>
-      </c>
-      <c r="I21" s="59">
-        <v>0</v>
-      </c>
-      <c r="J21" s="59">
-        <v>0</v>
-      </c>
-      <c r="K21" s="59">
+      <c r="A21" s="64"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68">
+        <v>1</v>
+      </c>
+      <c r="H21" s="68">
+        <v>1</v>
+      </c>
+      <c r="I21" s="68">
+        <v>0</v>
+      </c>
+      <c r="J21" s="68">
+        <v>0</v>
+      </c>
+      <c r="K21" s="68">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
@@ -3560,7 +3865,17 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="K11:K13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
@@ -3572,8 +3887,20 @@
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="J11:J13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="K3:K7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="H8:H10"/>
@@ -3581,10 +3908,13 @@
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="G3:G7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3592,24 +3922,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K10"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="26" style="15" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="28.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="26" style="22" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3618,266 +3948,278 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14">
-        <v>1</v>
-      </c>
-      <c r="J3" s="14">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="53" t="s">
+      <c r="D6" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="E6" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21">
+        <v>1</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="B7" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="B8" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="B9" s="4"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="4"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="13"/>
+      <c r="B10" s="4"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3889,86 +4231,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="21" customWidth="1"/>
-    <col min="6" max="7" width="17.7109375" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="18"/>
+    <col min="1" max="1" width="30.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="29" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="55" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>93</v>
+      <c r="A3" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -3990,20 +4332,20 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>93</v>
+      <c r="A4" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="51" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>89</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -4025,20 +4367,20 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>93</v>
+      <c r="A5" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
@@ -4060,20 +4402,20 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>93</v>
+      <c r="A6" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -4095,20 +4437,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>93</v>
+      <c r="A7" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -4130,20 +4472,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>93</v>
+      <c r="A8" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -4165,20 +4507,20 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>93</v>
+      <c r="A9" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F9" s="7">
         <v>2</v>
@@ -4200,20 +4542,20 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>93</v>
+      <c r="A10" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>89</v>
+      <c r="E10" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="7">
         <v>2</v>
@@ -4235,20 +4577,20 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>93</v>
+      <c r="A11" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F11" s="7">
         <v>2</v>
@@ -4270,20 +4612,20 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>93</v>
+      <c r="A12" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
@@ -4305,20 +4647,20 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>93</v>
+      <c r="A13" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="E13" s="51" t="s">
         <v>65</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>88</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
@@ -4340,20 +4682,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>93</v>
+      <c r="A14" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>88</v>
+        <v>72</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
@@ -4375,20 +4717,20 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>93</v>
+      <c r="A15" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>88</v>
+        <v>72</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F15" s="7">
         <v>2</v>
@@ -4410,20 +4752,20 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>93</v>
+      <c r="A16" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -4445,20 +4787,20 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>93</v>
+      <c r="A17" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -4480,20 +4822,20 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>93</v>
+      <c r="A18" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F18" s="7">
         <v>2</v>
@@ -4515,20 +4857,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>93</v>
+      <c r="A19" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F19" s="7">
         <v>2</v>
@@ -4550,20 +4892,20 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>93</v>
+      <c r="A20" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
@@ -4585,20 +4927,20 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>93</v>
+      <c r="A21" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
@@ -4620,20 +4962,20 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="F22" s="7">
         <v>2</v>
@@ -4655,20 +4997,20 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="E23" s="51" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>89</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
@@ -4690,20 +5032,20 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="F24" s="7">
         <v>0</v>

--- a/Projects/SANOFIZA/Data/Template.xlsx
+++ b/Projects/SANOFIZA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -503,7 +503,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="124">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -865,7 +865,7 @@
     <t xml:space="preserve">SA  FSU</t>
   </si>
   <si>
-    <t xml:space="preserve">S-FSU</t>
+    <t xml:space="preserve">SA-FSU</t>
   </si>
   <si>
     <t xml:space="preserve">SA Essentiale Dumpbin </t>
@@ -886,7 +886,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1003,23 +1003,10 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val=""/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1264,7 +1251,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1373,10 +1360,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1409,10 +1392,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1453,10 +1432,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1465,7 +1440,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1473,11 +1448,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1525,39 +1496,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1647,14 +1610,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4655870445344"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,20 +1874,22 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="14" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="10.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1943,7 +1908,7 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
@@ -2019,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
@@ -2057,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -2095,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
@@ -2133,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
@@ -2171,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
@@ -2209,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
@@ -2247,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
@@ -2285,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
         <v>23</v>
       </c>
@@ -2323,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
         <v>23</v>
       </c>
@@ -2361,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -2399,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
@@ -2437,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
@@ -2475,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
         <v>23</v>
       </c>
@@ -2513,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
         <v>23</v>
       </c>
@@ -2551,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
         <v>23</v>
       </c>
@@ -2589,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
         <v>23</v>
       </c>
@@ -2627,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
         <v>23</v>
       </c>
@@ -2665,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
         <v>23</v>
       </c>
@@ -2731,20 +2696,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="27" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.4655870445344"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.4655870445344"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.06072874493927"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2789,154 +2754,154 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2961,25 +2926,27 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="33" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="34" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.8259109311741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="33" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="33" width="12.1174089068826"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="33" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2988,8 +2955,9 @@
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -3009,45 +2977,45 @@
         <v>35</v>
       </c>
       <c r="G2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="36" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="39" t="s">
         <v>93</v>
       </c>
       <c r="F3" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="24" t="n">
         <v>1</v>
@@ -3065,16 +3033,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="24"/>
-      <c r="G4" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G4" s="24"/>
       <c r="H4" s="24" t="n">
         <v>1</v>
       </c>
@@ -3082,25 +3048,23 @@
         <v>1</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="24" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G5" s="24"/>
       <c r="H5" s="24" t="n">
         <v>1</v>
       </c>
@@ -3117,16 +3081,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="24"/>
-      <c r="G6" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G6" s="24"/>
       <c r="H6" s="24" t="n">
         <v>1</v>
       </c>
@@ -3143,18 +3105,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G7" s="24"/>
       <c r="H7" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="24" t="n">
         <v>0</v>
@@ -3166,30 +3126,30 @@
         <v>0</v>
       </c>
       <c r="L7" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="42" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="24" t="n">
         <v>1</v>
@@ -3198,30 +3158,28 @@
         <v>1</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="24" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G9" s="24"/>
       <c r="H9" s="24" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="24" t="n">
         <v>0</v>
@@ -3230,19 +3188,17 @@
         <v>0</v>
       </c>
       <c r="L9" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G10" s="24"/>
       <c r="H10" s="24" t="n">
         <v>1</v>
       </c>
@@ -3253,33 +3209,33 @@
         <v>1</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="42" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="24" t="n">
         <v>1</v>
@@ -3291,22 +3247,20 @@
         <v>1</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G12" s="24"/>
       <c r="H12" s="24" t="n">
         <v>1</v>
       </c>
@@ -3314,25 +3268,23 @@
         <v>1</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="24" t="n">
         <v>0</v>
       </c>
       <c r="L12" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G13" s="24"/>
       <c r="H13" s="24" t="n">
         <v>1</v>
       </c>
@@ -3340,36 +3292,36 @@
         <v>1</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="24" t="n">
         <v>0</v>
       </c>
       <c r="L13" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="42" t="s">
         <v>99</v>
       </c>
       <c r="F14" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="24" t="n">
         <v>1</v>
@@ -3378,25 +3330,23 @@
         <v>1</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="24" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="24" t="n">
         <v>1</v>
       </c>
@@ -3404,36 +3354,36 @@
         <v>1</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="24" t="n">
         <v>0</v>
       </c>
       <c r="L15" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="42" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="24" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="24" t="n">
         <v>1</v>
@@ -3451,16 +3401,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G17" s="24"/>
       <c r="H17" s="24" t="n">
         <v>1</v>
       </c>
@@ -3478,26 +3426,26 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="42" t="s">
         <v>103</v>
       </c>
       <c r="F18" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="24" t="n">
         <v>1</v>
@@ -3509,22 +3457,20 @@
         <v>1</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G19" s="24"/>
       <c r="H19" s="24" t="n">
         <v>1</v>
       </c>
@@ -3532,36 +3478,36 @@
         <v>1</v>
       </c>
       <c r="J19" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="24" t="n">
         <v>0</v>
       </c>
       <c r="L19" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="42" t="s">
         <v>105</v>
       </c>
       <c r="F20" s="24" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="24" t="n">
         <v>1</v>
@@ -3579,27 +3525,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="35"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G21" s="24"/>
       <c r="H21" s="24" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="24" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="24" t="n">
         <v>1</v>
@@ -3709,22 +3653,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="47" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="47" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="47" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="49" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.8947368421053"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="32.9271255060729"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="46" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3741,298 +3685,279 @@
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="L1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="J2" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="K2" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="52" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="32" t="n">
-        <v>1</v>
+      <c r="F3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="32" t="n">
-        <v>1</v>
+      <c r="F4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="32" t="n">
-        <v>1</v>
+      <c r="F5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="32" t="n">
-        <v>1</v>
+      <c r="F6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="32" t="n">
-        <v>1</v>
+      <c r="F7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="67"/>
-    </row>
+      <c r="F8" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="61"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
@@ -4055,27 +3980,29 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="68" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="68" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="68" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="68" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="68" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="69" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="62" width="31.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="62" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="62" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="62" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="62" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="62" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="63" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="63" width="12.1174089068826"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="63" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -4084,47 +4011,48 @@
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="71" t="s">
+      <c r="L1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="J2" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="K2" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="69" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -4143,13 +4071,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="24" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="24" t="n">
         <v>1</v>
@@ -4162,7 +4090,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -4181,16 +4109,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="24" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="24" t="n">
         <v>0</v>
@@ -4200,7 +4128,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -4219,13 +4147,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="24" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="24" t="n">
         <v>1</v>
@@ -4238,7 +4166,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4257,13 +4185,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="24" t="n">
         <v>2</v>
       </c>
       <c r="I6" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="24" t="n">
         <v>1</v>
@@ -4276,7 +4204,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -4295,11 +4223,11 @@
         <v>1</v>
       </c>
       <c r="G7" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="24" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" s="24" t="n">
         <v>0</v>
       </c>
@@ -4314,7 +4242,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4333,26 +4261,26 @@
         <v>2</v>
       </c>
       <c r="G8" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="24" t="n">
         <v>2</v>
       </c>
       <c r="I8" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -4371,13 +4299,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="24" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="24" t="n">
         <v>0</v>
@@ -4390,7 +4318,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -4409,26 +4337,26 @@
         <v>2</v>
       </c>
       <c r="G10" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="24" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="24" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -4447,11 +4375,11 @@
         <v>2</v>
       </c>
       <c r="G11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="24" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="24" t="n">
         <v>1</v>
       </c>
@@ -4459,14 +4387,14 @@
         <v>1</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4485,16 +4413,16 @@
         <v>2</v>
       </c>
       <c r="G12" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="24" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="24" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="24" t="n">
         <v>0</v>
@@ -4504,7 +4432,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -4523,16 +4451,16 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="24" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="24" t="n">
         <v>1</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="24" t="n">
         <v>0</v>
@@ -4542,7 +4470,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -4561,16 +4489,16 @@
         <v>2</v>
       </c>
       <c r="G14" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="24" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="24" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="24" t="n">
         <v>0</v>
@@ -4580,7 +4508,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -4599,16 +4527,16 @@
         <v>2</v>
       </c>
       <c r="G15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="24" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="24" t="n">
         <v>1</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="24" t="n">
         <v>0</v>
@@ -4618,7 +4546,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -4637,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="G16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="24" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="24" t="n">
         <v>1</v>
       </c>
@@ -4656,7 +4584,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -4675,11 +4603,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="24" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" s="24" t="n">
         <v>1</v>
       </c>
@@ -4694,7 +4622,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -4713,11 +4641,11 @@
         <v>2</v>
       </c>
       <c r="G18" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="24" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="24" t="n">
         <v>1</v>
       </c>
@@ -4725,14 +4653,14 @@
         <v>1</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -4751,16 +4679,16 @@
         <v>2</v>
       </c>
       <c r="G19" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="24" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="24" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="24" t="n">
         <v>0</v>
@@ -4770,7 +4698,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -4789,11 +4717,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="24" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" s="24" t="n">
         <v>1</v>
       </c>
@@ -4808,7 +4736,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -4827,26 +4755,26 @@
         <v>0</v>
       </c>
       <c r="G21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="24" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="24" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="67" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -4865,13 +4793,13 @@
         <v>2</v>
       </c>
       <c r="G22" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" s="24" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="24" t="n">
         <v>0</v>
@@ -4884,7 +4812,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="67" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -4903,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="24" t="n">
         <v>2</v>
       </c>
       <c r="I23" s="24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="24" t="n">
         <v>0</v>
@@ -4922,7 +4850,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="67" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="21" t="s">

--- a/Projects/SANOFIZA/Data/Template.xlsx
+++ b/Projects/SANOFIZA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -503,7 +503,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="110">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -779,48 +779,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dulcolax Adult supps.10s,Dulcolax tabs 30s,Dulcolax tabs 10s,Dulcolax pead Supps 10s,Dulcolax tabs 60s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6006127000460,6006127000491,6006127001535,6006127000477,6006127001238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essentiale extreme 100s,Essentiale extreme 50s,Essentiale 20s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6009609472281,6009609472267,6009609472250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmaton caps 30s,Pharmaton caps 60s,Pharmaton Proactive 30s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6006127000705,6006127001504,6006127001764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viral choice 60s,Viral choice Caps 120s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6009609470249,6009609470751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscopan Tabs 10s,Buscopan syrup 100ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6006127000347,6006127000408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antistax tabs 30s,Antistax tabs 60s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6006127001580,6006127001498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telfast Susp.150ml,Telfast tabs 120mg 30s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6009609472335,6005317003151</t>
   </si>
   <si>
     <t xml:space="preserve">Mega</t>
@@ -1042,7 +1000,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1099,12 +1057,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -1116,7 +1068,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1142,27 +1094,6 @@
       <left style="thin"/>
       <right style="medium"/>
       <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1251,7 +1182,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1392,46 +1323,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1448,15 +1339,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1468,7 +1359,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1480,7 +1371,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -1516,11 +1407,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1610,14 +1501,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4655870445344"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0931174089069"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,16 +1771,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4655870445344"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="14" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="10.1336032388664"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="14" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="14" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="14" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2696,12 +2587,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.4655870445344"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.5465587044534"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.4655870445344"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.5465587044534"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2714,6 +2605,11 @@
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
@@ -2923,22 +2819,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.8259109311741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="33" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="33" width="12.1174089068826"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="33" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="33" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="33" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="33" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2995,647 +2891,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3661,14 +2920,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.8947368421053"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="32.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="46" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="36" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3688,37 +2947,37 @@
       <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="48" t="s">
+      <c r="H2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="19" t="s">
@@ -3726,211 +2985,211 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="53" t="s">
+      <c r="D8" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>45</v>
-      </c>
       <c r="F8" s="31" t="n">
         <v>1</v>
       </c>
@@ -3954,7 +3213,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="61"/>
+      <c r="C9" s="51"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3980,29 +3239,29 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="62" width="31.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="62" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="62" width="19.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="62" width="17.8744939271255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="62" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="62" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="63" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="63" width="12.1174089068826"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="63" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="52" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="53" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="53" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="53" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -4014,37 +3273,37 @@
       <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="48" t="s">
+      <c r="H2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="19" t="s">
@@ -4052,8 +3311,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
-        <v>123</v>
+      <c r="A3" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>42</v>
@@ -4090,8 +3349,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66" t="s">
-        <v>123</v>
+      <c r="A4" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>46</v>
@@ -4128,8 +3387,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66" t="s">
-        <v>123</v>
+      <c r="A5" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>48</v>
@@ -4166,8 +3425,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
-        <v>123</v>
+      <c r="A6" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>50</v>
@@ -4204,8 +3463,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="s">
-        <v>123</v>
+      <c r="A7" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>52</v>
@@ -4242,8 +3501,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="66" t="s">
-        <v>123</v>
+      <c r="A8" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>54</v>
@@ -4280,8 +3539,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
-        <v>123</v>
+      <c r="A9" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>57</v>
@@ -4318,8 +3577,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="66" t="s">
-        <v>123</v>
+      <c r="A10" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>59</v>
@@ -4356,8 +3615,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
-        <v>123</v>
+      <c r="A11" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>61</v>
@@ -4394,8 +3653,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="66" t="s">
-        <v>123</v>
+      <c r="A12" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>65</v>
@@ -4432,8 +3691,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66" t="s">
-        <v>123</v>
+      <c r="A13" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>67</v>
@@ -4470,8 +3729,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="66" t="s">
-        <v>123</v>
+      <c r="A14" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>69</v>
@@ -4508,8 +3767,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="66" t="s">
-        <v>123</v>
+      <c r="A15" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>72</v>
@@ -4546,8 +3805,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="66" t="s">
-        <v>123</v>
+      <c r="A16" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>74</v>
@@ -4584,8 +3843,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="66" t="s">
-        <v>123</v>
+      <c r="A17" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>78</v>
@@ -4622,8 +3881,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="66" t="s">
-        <v>123</v>
+      <c r="A18" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>80</v>
@@ -4660,8 +3919,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="66" t="s">
-        <v>123</v>
+      <c r="A19" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>83</v>
@@ -4698,8 +3957,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="66" t="s">
-        <v>123</v>
+      <c r="A20" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>85</v>
@@ -4736,8 +3995,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="66" t="s">
-        <v>123</v>
+      <c r="A21" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>89</v>
@@ -4774,7 +4033,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -4812,7 +4071,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -4850,7 +4109,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="21" t="s">

--- a/Projects/SANOFIZA/Data/Template.xlsx
+++ b/Projects/SANOFIZA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="117">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">Dulcolax</t>
   </si>
   <si>
-    <t xml:space="preserve">DH</t>
+    <t xml:space="preserve">Digestive Health</t>
   </si>
   <si>
     <t xml:space="preserve">Dulcolax tabs 30s </t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">Pharmaton </t>
   </si>
   <si>
-    <t xml:space="preserve">MVS</t>
+    <t xml:space="preserve">VMS</t>
   </si>
   <si>
     <t xml:space="preserve">Pharmaton caps 60s</t>
@@ -650,6 +650,24 @@
     <t xml:space="preserve">6006127001504</t>
   </si>
   <si>
+    <t xml:space="preserve">Pharmaton Proactive 30s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6006127001764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton Proactive 30s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6009609473639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton Proactive 60s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6009609473646</t>
+  </si>
+  <si>
     <t xml:space="preserve">Viral choice 60s </t>
   </si>
   <si>
@@ -692,7 +710,7 @@
     <t xml:space="preserve">Antistax </t>
   </si>
   <si>
-    <t xml:space="preserve">Other</t>
+    <t xml:space="preserve">Preventative Care</t>
   </si>
   <si>
     <t xml:space="preserve">Antistax tabs 60s </t>
@@ -732,9 +750,6 @@
   </si>
   <si>
     <t xml:space="preserve">SA _DUL_ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digestive Health</t>
   </si>
   <si>
     <t xml:space="preserve">SA Antistax Shelf tray</t>
@@ -794,7 +809,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -882,6 +897,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1179,7 +1200,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1280,31 +1301,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1364,15 +1397,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1380,7 +1413,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1412,26 +1445,26 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1440,7 +1473,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1464,19 +1497,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="23" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1500,7 +1533,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1584,19 +1617,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1852,20 +1885,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
@@ -1886,7 +1919,7 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +1957,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
@@ -1962,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
@@ -2000,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -2038,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
@@ -2076,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
@@ -2114,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
@@ -2152,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
@@ -2190,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
@@ -2228,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
         <v>23</v>
       </c>
@@ -2266,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
         <v>23</v>
       </c>
@@ -2304,36 +2337,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>64</v>
       </c>
       <c r="F13" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="23" t="n">
         <v>0</v>
@@ -2342,103 +2375,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>69</v>
+      <c r="D14" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>74</v>
+      <c r="D15" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="F15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F16" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="22" t="n">
         <v>1</v>
@@ -2450,27 +2483,27 @@
         <v>1</v>
       </c>
       <c r="K16" s="23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F17" s="22" t="n">
         <v>1</v>
@@ -2488,21 +2521,21 @@
         <v>1</v>
       </c>
       <c r="K17" s="23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="24" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>80</v>
@@ -2511,10 +2544,10 @@
         <v>81</v>
       </c>
       <c r="F18" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="22" t="n">
         <v>1</v>
@@ -2526,53 +2559,53 @@
         <v>1</v>
       </c>
       <c r="K18" s="23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>86</v>
@@ -2581,10 +2614,10 @@
         <v>87</v>
       </c>
       <c r="F20" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="22" t="n">
         <v>1</v>
@@ -2593,12 +2626,117 @@
         <v>1</v>
       </c>
       <c r="J20" s="23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,20 +2768,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="29" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2665,7 +2803,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -2693,154 +2831,154 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2870,20 +3008,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="32" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="32" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="33" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="35" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="35" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="35" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="36" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2905,7 +3043,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -2933,270 +3071,270 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -3304,24 +3442,24 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="26" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="47" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="47" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="47" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="47" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="47" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="29" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="29" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="50" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="50" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="50" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="50" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="50" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3340,312 +3478,312 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="48" t="s">
+    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="49" t="s">
+      <c r="J2" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="52" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="E3" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="B4" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="53" t="s">
+      <c r="B5" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
+      <c r="F5" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
+      <c r="B6" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61" t="s">
+      <c r="B7" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="62" t="s">
+      <c r="B8" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="s">
+      <c r="E8" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="70" t="n">
+      <c r="F9" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="71"/>
+      <c r="C10" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3669,27 +3807,27 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="72" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="72" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="72" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="72" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="72" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="72" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="73" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="75" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="75" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="75" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="75" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="75" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="75" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="76" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="74"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -3700,20 +3838,20 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="76" t="s">
+    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="79" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -3723,13 +3861,13 @@
         <v>36</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>40</v>
@@ -3738,8 +3876,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -3751,33 +3889,33 @@
       <c r="D3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="77" t="n">
+      <c r="F3" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="77" t="n">
+      <c r="G3" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="77" t="n">
+      <c r="I3" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="J3" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -3789,33 +3927,33 @@
       <c r="D4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="77" t="n">
+      <c r="F4" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="77" t="n">
+      <c r="G4" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="77" t="n">
+      <c r="I4" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="J4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -3827,33 +3965,33 @@
       <c r="D5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="77" t="n">
+      <c r="F5" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="77" t="n">
+      <c r="G5" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="77" t="n">
+      <c r="I5" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="J5" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -3865,33 +4003,33 @@
       <c r="D6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="77" t="n">
+      <c r="F6" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="77" t="n">
+      <c r="G6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="77" t="n">
+      <c r="I6" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="J6" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -3903,33 +4041,33 @@
       <c r="D7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="77" t="n">
+      <c r="F7" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="77" t="n">
+      <c r="G7" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
+      <c r="I7" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -3941,33 +4079,33 @@
       <c r="D8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="79" t="n">
+      <c r="F8" s="82" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="77" t="n">
+      <c r="G8" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="77" t="n">
+      <c r="I8" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="77" t="n">
+      <c r="J8" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="78" t="n">
+      <c r="K8" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="81" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -3979,33 +4117,33 @@
       <c r="D9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="79" t="n">
+      <c r="F9" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="77" t="n">
+      <c r="G9" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="77" t="n">
+      <c r="I9" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
+      <c r="J9" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -4017,33 +4155,33 @@
       <c r="D10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="79" t="n">
+      <c r="F10" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="77" t="n">
+      <c r="G10" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="77" t="n">
+      <c r="I10" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50" t="s">
+      <c r="J10" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -4058,30 +4196,30 @@
       <c r="E11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="79" t="n">
+      <c r="F11" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="79" t="n">
+      <c r="G11" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50" t="s">
+      <c r="I11" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4096,227 +4234,227 @@
       <c r="E12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="79" t="n">
+      <c r="F12" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="79" t="n">
+      <c r="G12" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50" t="s">
+      <c r="I12" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>68</v>
+      <c r="B13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="79" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50" t="s">
+      <c r="F13" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="25" t="s">
         <v>71</v>
       </c>
+      <c r="C14" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="D14" s="21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="79" t="n">
+      <c r="F14" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="79" t="n">
+      <c r="G16" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50" t="s">
+      <c r="I16" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="B17" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="77" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" s="77" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" s="77" t="n">
+      <c r="E17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="K15" s="77" t="n">
+      <c r="G17" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50" t="s">
+      <c r="I17" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="79" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="77" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>80</v>
@@ -4324,75 +4462,75 @@
       <c r="E18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="79" t="n">
+      <c r="F18" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="77" t="n">
+      <c r="K18" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80" t="s">
+      <c r="L18" s="81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>86</v>
@@ -4400,177 +4538,177 @@
       <c r="E20" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="77" t="n">
+      <c r="F20" s="82" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="61" t="s">
+      <c r="J20" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="82" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="62" t="s">
+      <c r="B24" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="77" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" s="77" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="66" t="s">
+      <c r="E24" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="70" t="n">
+      <c r="F24" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="73" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Projects/SANOFIZA/Data/Template.xlsx
+++ b/Projects/SANOFIZA/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,10 @@
     <sheet name="Primary&amp;Secondary_POSM" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Primary&amp;Secondary_Facings" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$L$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$L$23</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -447,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="118">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -689,115 +693,118 @@
     <t xml:space="preserve">6006127000347</t>
   </si>
   <si>
+    <t xml:space="preserve">Buscopan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscopan syrup 100ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6006127000408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antistax tabs 30s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6006127001580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antistax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventative Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antistax tabs 60s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6006127001498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telfast Susp.150ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6009609472335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telfast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telfast tabs 120mg 30s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6005317003151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Low </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA Dulcolax Shelf trays </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA _DUL_ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA Antistax Shelf tray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-ANT-ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Essentiale Shelf Talker/Strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-STS-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA Counter Unit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-CTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multibrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multicategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA Clip Strip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA  FSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-FSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Dis-Chem Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-POSM-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Pharmacies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buscopan </t>
   </si>
   <si>
-    <t xml:space="preserve">Pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscopan syrup 100ml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6006127000408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antistax tabs 30s </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6006127001580</t>
-  </si>
-  <si>
     <t xml:space="preserve">Antistax </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preventative Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antistax tabs 60s </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6006127001498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telfast Susp.150ml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6009609472335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telfast </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allergy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telfast tabs 120mg 30s </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6005317003151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Low </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA Dulcolax Shelf trays </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA _DUL_ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA Antistax Shelf tray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA-ANT-ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antistax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S Essentiale Shelf Talker/Strip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S-STS-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA Counter Unit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA-CTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multibrand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multicategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA Clip Strip </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA  FSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S-FSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S Dis-Chem Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S-POSM-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mega Pharmacies</t>
   </si>
 </sst>
 </file>
@@ -1610,6 +1617,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1617,20 +1628,20 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,25 +1893,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2337,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -2375,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
@@ -2413,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
@@ -2527,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
         <v>23</v>
       </c>
@@ -2565,7 +2576,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
       <c r="B19" s="21" t="s">
         <v>82</v>
       </c>
@@ -2601,6 +2613,9 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="B20" s="21" t="s">
         <v>84</v>
       </c>
@@ -2636,6 +2651,9 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="B21" s="21" t="s">
         <v>88</v>
       </c>
@@ -2670,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
         <v>90</v>
       </c>
@@ -2705,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
         <v>94</v>
       </c>
@@ -2740,7 +2758,15 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A2:L23">
+    <filterColumn colId="5">
+      <customFilters and="true">
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
@@ -2751,7 +2777,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2762,18 +2789,18 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="29" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="29" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3002,18 +3029,18 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="35" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="35" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="35" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="36" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="35" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="68.9838056680162"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="35" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="35" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="36" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3442,24 +3469,24 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="29" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="29" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="50" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="50" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="50" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="50" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="50" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="29" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="29" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="50" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="50" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="50" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="50" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="50" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3565,7 +3592,7 @@
         <v>102</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E4" s="57" t="s">
         <v>45</v>
@@ -3597,10 +3624,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>104</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>105</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>56</v>
@@ -3635,16 +3662,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="D6" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="E6" s="66" t="s">
         <v>108</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>109</v>
       </c>
       <c r="F6" s="34" t="n">
         <v>0</v>
@@ -3673,16 +3700,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>111</v>
-      </c>
       <c r="D7" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="66" t="s">
         <v>108</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>109</v>
       </c>
       <c r="F7" s="34" t="n">
         <v>0</v>
@@ -3711,16 +3738,16 @@
         <v>20</v>
       </c>
       <c r="B8" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="64" t="s">
-        <v>113</v>
-      </c>
       <c r="D8" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="66" t="s">
         <v>108</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>109</v>
       </c>
       <c r="F8" s="34" t="n">
         <v>0</v>
@@ -3749,16 +3776,16 @@
         <v>20</v>
       </c>
       <c r="B9" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="70" t="s">
-        <v>115</v>
-      </c>
       <c r="D9" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="71" t="s">
         <v>108</v>
-      </c>
-      <c r="E9" s="71" t="s">
-        <v>109</v>
       </c>
       <c r="F9" s="72" t="n">
         <v>1</v>
@@ -3807,19 +3834,19 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="75" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="75" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="75" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="75" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="75" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="75" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="76" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="75" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="75" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="75" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="75" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="75" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="75" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="76" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3861,7 +3888,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>38</v>
@@ -4457,7 +4484,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>81</v>
@@ -4495,7 +4522,7 @@
         <v>83</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>81</v>
@@ -4533,7 +4560,7 @@
         <v>85</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>87</v>
@@ -4571,7 +4598,7 @@
         <v>89</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>87</v>
@@ -4679,16 +4706,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="70" t="s">
-        <v>115</v>
-      </c>
       <c r="D24" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="71" t="s">
         <v>108</v>
-      </c>
-      <c r="E24" s="71" t="s">
-        <v>109</v>
       </c>
       <c r="F24" s="72" t="n">
         <v>1</v>

--- a/Projects/SANOFIZA/Data/Template.xlsx
+++ b/Projects/SANOFIZA/Data/Template.xlsx
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="107">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -630,7 +630,7 @@
     <t xml:space="preserve">6009609472267</t>
   </si>
   <si>
-    <t xml:space="preserve">Essentiale 20s </t>
+    <t xml:space="preserve">Essentiale extreme 20s </t>
   </si>
   <si>
     <t xml:space="preserve">6009609472250</t>
@@ -696,9 +696,6 @@
     <t xml:space="preserve">Antistax</t>
   </si>
   <si>
-    <t xml:space="preserve">Preventative Care</t>
-  </si>
-  <si>
     <t xml:space="preserve">Antistax tabs 60s </t>
   </si>
   <si>
@@ -732,9 +729,6 @@
     <t xml:space="preserve">Community High </t>
   </si>
   <si>
-    <t xml:space="preserve">Community Low </t>
-  </si>
-  <si>
     <t xml:space="preserve">SA Dulcolax Shelf trays </t>
   </si>
   <si>
@@ -753,22 +747,28 @@
     <t xml:space="preserve">SA-ESS-STS</t>
   </si>
   <si>
-    <t xml:space="preserve">SA Buscopan Counter Unit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA-BUS-CTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA Dulcolax PSU</t>
+    <t xml:space="preserve">SA Essentiale Counter Unit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-ESS-CTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA Viralchoice FSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-VIR-FSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA Dulcolax PSU </t>
   </si>
   <si>
     <t xml:space="preserve">SA-DUL-PSU</t>
   </si>
   <si>
-    <t xml:space="preserve">SA Antistax  FSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA-ANT-FSU</t>
+    <t xml:space="preserve">SA Antistax PSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-ANT-PSU_A1</t>
   </si>
   <si>
     <t xml:space="preserve">Mega Pharmacies</t>
@@ -783,7 +783,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -934,6 +934,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -942,6 +949,13 @@
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1021,7 +1035,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1064,13 +1078,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1101,7 +1108,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1243,7 +1250,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1262,10 +1269,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
@@ -1286,39 +1289,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="24" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="25" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1330,7 +1333,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1420,14 +1423,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5101214574899"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1943319838057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1619433198381"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4453441295547"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3238866396761"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,19 +1687,19 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="46.1538461538462"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.5101214574899"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1716,7 +1718,7 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2299,8 +2301,8 @@
       <c r="D17" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>81</v>
+      <c r="E17" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="F17" s="22" t="n">
         <v>1</v>
@@ -2329,16 +2331,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>81</v>
+      <c r="E18" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="F18" s="22" t="n">
         <v>1</v>
@@ -2367,16 +2369,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="D19" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="E19" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>87</v>
       </c>
       <c r="F19" s="22" t="n">
         <v>0</v>
@@ -2405,16 +2407,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>89</v>
-      </c>
       <c r="D20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>87</v>
       </c>
       <c r="F20" s="22" t="n">
         <v>0</v>
@@ -2490,12 +2492,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="27.7854251012146"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="23.5101214574899"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="34.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="23.5101214574899"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2525,7 +2527,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -2537,10 +2539,10 @@
         <v>36</v>
       </c>
       <c r="H2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>91</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>92</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>39</v>
@@ -2602,12 +2604,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="30" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="69.6275303643725"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="30" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="30" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="31" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="30" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="30" width="71.3684210526316"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="30" width="44.8056680161943"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="30" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="30" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="31" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2637,7 +2639,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -2649,10 +2651,10 @@
         <v>36</v>
       </c>
       <c r="H2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>91</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>92</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>39</v>
@@ -2716,23 +2718,23 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="26" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="34" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="34" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="34" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="34" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="34" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="30.4777327935223"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="34.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="23.5101214574899"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="28.1578947368421"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="26" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="34" width="10.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="34" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="34" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="34" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="34" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2751,7 +2753,7 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -2777,10 +2779,10 @@
         <v>37</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>40</v>
@@ -2794,10 +2796,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>44</v>
@@ -2827,21 +2829,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>64</v>
+      <c r="E4" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="F4" s="39" t="n">
         <v>1</v>
@@ -2869,11 +2871,11 @@
       <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>99</v>
+      <c r="B5" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>56</v>
@@ -2881,22 +2883,22 @@
       <c r="E5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="43" t="n">
+      <c r="F5" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="42" t="n">
         <v>1</v>
       </c>
       <c r="L5" s="39" t="n">
@@ -2904,116 +2906,154 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C7" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="46" t="s">
+      <c r="D7" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="39" t="n">
+      <c r="F9" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3052,18 +3092,18 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="48" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="49" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="33.2995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="46.1538461538462"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="48" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="49" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3082,725 +3122,725 @@
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="28" t="s">
+      <c r="I2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="s">
+      <c r="F3" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53" t="s">
+      <c r="F4" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53" t="s">
+      <c r="F5" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53" t="s">
+      <c r="F6" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
+      <c r="F7" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="56" t="n">
+      <c r="F8" s="55" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="55" t="n">
+      <c r="G8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="55" t="n">
+      <c r="I8" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="55" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53" t="s">
+      <c r="J8" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53" t="s">
+      <c r="F9" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="53" t="s">
+      <c r="F10" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="53" t="s">
+      <c r="F11" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="53" t="s">
+      <c r="F12" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="53" t="s">
+      <c r="F13" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="53" t="s">
+      <c r="F14" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="55" t="n">
+      <c r="F15" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="I15" s="55" t="n">
+      <c r="I15" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="55" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53" t="s">
+      <c r="J15" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53" t="s">
+      <c r="F16" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="54" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="56" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="55" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="53" t="s">
+      <c r="C18" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="54" t="s">
+      <c r="B19" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53" t="s">
+      <c r="C19" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="54" t="s">
+      <c r="B20" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="E20" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="55" t="n">
+      <c r="F20" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="54" t="n">
         <v>1</v>
       </c>
     </row>
